--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_14_30.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_14_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1316918.473553629</v>
+        <v>1312048.296268893</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8296541.918375793</v>
+        <v>8296541.918375791</v>
       </c>
     </row>
     <row r="9">
@@ -1375,22 +1375,22 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E11" t="n">
-        <v>106.4594908409558</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F11" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G11" t="n">
-        <v>407.0231810178811</v>
+        <v>185.4140239804899</v>
       </c>
       <c r="H11" t="n">
         <v>300.2783333401841</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>59.54237137282632</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>119.0923286359944</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1454,19 +1454,19 @@
         <v>149.1476881355087</v>
       </c>
       <c r="D12" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
         <v>117.7848734220132</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>77.03851849986194</v>
       </c>
       <c r="I12" t="n">
         <v>11.90382589688436</v>
@@ -1499,10 +1499,10 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>88.38869863264458</v>
+        <v>40.1101609412847</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>170.8836040586646</v>
       </c>
       <c r="U12" t="n">
         <v>207.8918312087472</v>
@@ -1514,7 +1514,7 @@
         <v>227.816073408046</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y12" t="n">
         <v>177.5210747552478</v>
@@ -1530,25 +1530,25 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C13" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>154.0767819665104</v>
       </c>
       <c r="E13" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.6708174907576</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>145.915760422358</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>104.6770998313136</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1581,19 +1581,19 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>229.5134335018853</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>282.5352749748386</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X13" t="n">
-        <v>203.1049070436157</v>
+        <v>41.76219274901964</v>
       </c>
       <c r="Y13" t="n">
         <v>220.8809405715231</v>
@@ -1609,25 +1609,25 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C14" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>178.2585656884569</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>407.0231810178811</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>55.68447533078347</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>119.0923286359944</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -1669,7 +1669,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -1685,10 +1685,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C15" t="n">
-        <v>46.74460112884936</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D15" t="n">
         <v>128.7880777047345</v>
@@ -1697,10 +1697,10 @@
         <v>135.0820259802211</v>
       </c>
       <c r="F15" t="n">
-        <v>123.1874880556995</v>
+        <v>0.7136737783979</v>
       </c>
       <c r="G15" t="n">
-        <v>117.7848734220132</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>77.03851849986194</v>
@@ -1742,10 +1742,10 @@
         <v>170.8836040586646</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>207.8918312087472</v>
       </c>
       <c r="V15" t="n">
-        <v>220.3146016126436</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
         <v>227.816073408046</v>
@@ -1767,10 +1767,10 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C16" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>154.0032240193895</v>
@@ -1779,13 +1779,13 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G16" t="n">
-        <v>165.6708174907576</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>145.915760422358</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>104.6770998313136</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>82.16341786525868</v>
+        <v>4.036183299098277</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>185.0912503946672</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>229.5134335018853</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>282.5352749748386</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X16" t="n">
-        <v>203.1049070436157</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1849,13 +1849,13 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D17" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F17" t="n">
-        <v>172.2266780424408</v>
+        <v>161.2875935493347</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -1912,7 +1912,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="18">
@@ -1931,7 +1931,7 @@
         <v>128.7880777047345</v>
       </c>
       <c r="E18" t="n">
-        <v>135.0820259802211</v>
+        <v>118.0493010553097</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -1976,7 +1976,7 @@
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>153.8508791337534</v>
+        <v>170.8836040586646</v>
       </c>
       <c r="U18" t="n">
         <v>207.8918312087472</v>
@@ -2004,25 +2004,25 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C19" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>144.5584976963228</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>77.79339278955335</v>
+        <v>104.6770998313136</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,22 +2049,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>82.16341786525868</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>185.0912503946672</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>229.5134335018853</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>282.5352749748386</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>231.7395189948467</v>
@@ -2080,22 +2080,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>222.0406974808763</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G20" t="n">
-        <v>174.2872041676822</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2131,22 +2131,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>119.0923286359944</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>253.0345665146277</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>392.5258019886049</v>
@@ -2162,10 +2162,10 @@
         <v>150.2783710965517</v>
       </c>
       <c r="C21" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E21" t="n">
         <v>135.0820259802211</v>
@@ -2174,10 +2174,10 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G21" t="n">
-        <v>45.82561027020034</v>
+        <v>117.7848734220132</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>77.03851849986194</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2213,7 +2213,7 @@
         <v>113.625858512588</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>170.8836040586646</v>
       </c>
       <c r="U21" t="n">
         <v>207.8918312087472</v>
@@ -2222,10 +2222,10 @@
         <v>220.3146016126436</v>
       </c>
       <c r="W21" t="n">
-        <v>227.816073408046</v>
+        <v>115.708305001969</v>
       </c>
       <c r="X21" t="n">
-        <v>187.4140068734885</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>177.5210747552478</v>
@@ -2238,10 +2238,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>168.5030667546707</v>
+        <v>20.62179555532537</v>
       </c>
       <c r="D22" t="n">
         <v>154.0767819665104</v>
@@ -2250,13 +2250,13 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F22" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.6708174907576</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>145.915760422358</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>82.16341786525868</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2295,10 +2295,10 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>282.5352749748386</v>
       </c>
       <c r="V22" t="n">
-        <v>23.62456811956521</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>280.4970980481341</v>
@@ -2320,19 +2320,19 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C23" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>407.0231810178811</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2368,25 +2368,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>119.0923286359944</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>253.0345665146277</v>
       </c>
       <c r="V23" t="n">
-        <v>271.5428103190204</v>
+        <v>211.7548610781726</v>
       </c>
       <c r="W23" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>183.3559385043883</v>
+        <v>44.52756169566353</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>46.26287358594199</v>
+        <v>185.0912503946672</v>
       </c>
       <c r="T25" t="n">
         <v>229.5134335018853</v>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -2566,13 +2566,13 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>407.0231810178811</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>84.18854338449715</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>119.0923286359944</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>212.4758086907236</v>
       </c>
       <c r="U26" t="n">
-        <v>253.0345665146277</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>338.6857412035168</v>
@@ -2620,10 +2620,10 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X26" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>109.8168563930475</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="27">
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>154.0767819665104</v>
       </c>
       <c r="E28" t="n">
-        <v>79.97905790232819</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F28" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.6708174907576</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>145.915760422358</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>60.34660226472332</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2769,7 +2769,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>282.5352749748386</v>
       </c>
       <c r="V28" t="n">
         <v>263.319551727384</v>
@@ -2781,7 +2781,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y28" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2800,19 +2800,19 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G29" t="n">
-        <v>209.1353887759715</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>300.2783333401841</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>59.54237137282632</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,16 +2842,16 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>89.23662579194739</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>212.4758086907236</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -2860,7 +2860,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2955,13 +2955,13 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D31" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>6.218299839599999</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>185.0912503946672</v>
       </c>
       <c r="T31" t="n">
-        <v>229.5134335018853</v>
+        <v>46.92641254746722</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>282.5352749748386</v>
       </c>
       <c r="V31" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W31" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>231.7395189948467</v>
@@ -3028,25 +3028,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>381.5867174954989</v>
+        <v>101.522404947564</v>
       </c>
       <c r="E32" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>407.0231810178811</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>300.2783333401841</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>119.0923286359944</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>212.4758086907236</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>253.0345665146277</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -3094,7 +3094,7 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>240.2741653657944</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>392.5258019886049</v>
@@ -3186,10 +3186,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3201,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>107.2732403331569</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>44.52756169566336</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>185.0912503946672</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>229.5134335018853</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>282.5352749748386</v>
@@ -3271,16 +3271,16 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>11.95048099762974</v>
+        <v>87.48719268083109</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>407.0231810178811</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3319,22 +3319,22 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>212.4758086907236</v>
       </c>
       <c r="U35" t="n">
         <v>253.0345665146277</v>
       </c>
       <c r="V35" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="36">
@@ -3344,7 +3344,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C36" t="n">
         <v>149.1476881355087</v>
@@ -3356,13 +3356,13 @@
         <v>135.0820259802211</v>
       </c>
       <c r="F36" t="n">
-        <v>123.1874880556995</v>
+        <v>40.22502062116516</v>
       </c>
       <c r="G36" t="n">
-        <v>117.7848734220132</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>63.15688875259213</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3395,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>113.625858512588</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
@@ -3429,22 +3429,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.6708174907576</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>75.87598945322929</v>
+        <v>104.6770998313136</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>82.16341786525868</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>185.0912503946672</v>
+        <v>134.0747913403417</v>
       </c>
       <c r="T37" t="n">
         <v>229.5134335018853</v>
@@ -3486,13 +3486,13 @@
         <v>263.319551727384</v>
       </c>
       <c r="W37" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="38">
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -3511,19 +3511,19 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G38" t="n">
-        <v>407.0231810178811</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>63.76609554400882</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>59.54237137282632</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,22 +3553,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>119.0923286359944</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>212.4758086907236</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>240.9638747992329</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3584,25 +3584,25 @@
         <v>150.2783710965517</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F39" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>70.22937593051907</v>
+        <v>117.7848734220132</v>
       </c>
       <c r="H39" t="n">
-        <v>77.03851849986194</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>11.90382589688436</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3635,7 +3635,7 @@
         <v>113.625858512588</v>
       </c>
       <c r="T39" t="n">
-        <v>170.8836040586646</v>
+        <v>51.22822490388632</v>
       </c>
       <c r="U39" t="n">
         <v>207.8918312087472</v>
@@ -3717,7 +3717,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>4.771226860740053</v>
+        <v>4.771226860740278</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -3739,10 +3739,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>116.6483029352924</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D41" t="n">
         <v>381.5867174954989</v>
@@ -3751,7 +3751,7 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F41" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -3760,7 +3760,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>59.54237137282632</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3799,7 +3799,7 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>152.7089267048958</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -3830,13 +3830,13 @@
         <v>135.0820259802211</v>
       </c>
       <c r="F42" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>117.7848734220132</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>77.03851849986194</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>11.90382589688436</v>
@@ -3869,10 +3869,10 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>113.625858512588</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>141.9470532368688</v>
       </c>
       <c r="U42" t="n">
         <v>207.8918312087472</v>
@@ -3884,10 +3884,10 @@
         <v>227.816073408046</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y42" t="n">
-        <v>75.24539637544247</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="43">
@@ -3897,25 +3897,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>118.6483248067827</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>145.915760422358</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>44.52756169566336</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>185.0912503946672</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>229.5134335018853</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>282.5352749748386</v>
@@ -3963,10 +3963,10 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X43" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3979,22 +3979,22 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>36.73230385920114</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>279.3918802620382</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>407.0231810178811</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>300.2783333401841</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,13 +4027,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>119.0923286359944</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>212.4758086907236</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>253.0345665146277</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>338.6857412035168</v>
@@ -4042,10 +4042,10 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4058,10 +4058,10 @@
         <v>150.2783710965517</v>
       </c>
       <c r="C45" t="n">
-        <v>75.63199056420557</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>113.625858512588</v>
+        <v>88.8431579917979</v>
       </c>
       <c r="T45" t="n">
         <v>170.8836040586646</v>
@@ -4124,7 +4124,7 @@
         <v>187.4140068734885</v>
       </c>
       <c r="Y45" t="n">
-        <v>177.5210747552478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4140,22 +4140,22 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D46" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>154.0032240193895</v>
       </c>
       <c r="F46" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>0.3185643274739213</v>
       </c>
       <c r="I46" t="n">
-        <v>104.6770998313136</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,19 +4182,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>82.16341786525868</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>185.0912503946672</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>229.5134335018853</v>
       </c>
       <c r="U46" t="n">
-        <v>101.7958320997596</v>
+        <v>282.5352749748386</v>
       </c>
       <c r="V46" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -5017,28 +5017,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1274.705073074454</v>
+        <v>1791.491063604352</v>
       </c>
       <c r="C11" t="n">
-        <v>1274.705073074454</v>
+        <v>1791.491063604352</v>
       </c>
       <c r="D11" t="n">
-        <v>1274.705073074454</v>
+        <v>1406.04993482102</v>
       </c>
       <c r="E11" t="n">
-        <v>1167.170233841165</v>
+        <v>1003.466409937564</v>
       </c>
       <c r="F11" t="n">
-        <v>750.2757953711427</v>
+        <v>586.5719714675419</v>
       </c>
       <c r="G11" t="n">
-        <v>339.1412690904548</v>
+        <v>399.2850785579561</v>
       </c>
       <c r="H11" t="n">
-        <v>35.82982127208705</v>
+        <v>95.97363073958837</v>
       </c>
       <c r="I11" t="n">
-        <v>35.82982127208705</v>
+        <v>35.82982127208704</v>
       </c>
       <c r="J11" t="n">
         <v>349.1973608293694</v>
@@ -5047,46 +5047,46 @@
         <v>460.4337383187916</v>
       </c>
       <c r="L11" t="n">
-        <v>622.4184459954201</v>
+        <v>900.4222377725877</v>
       </c>
       <c r="M11" t="n">
-        <v>823.2427787360874</v>
+        <v>1101.246570513255</v>
       </c>
       <c r="N11" t="n">
-        <v>1266.636816978164</v>
+        <v>1308.319426359283</v>
       </c>
       <c r="O11" t="n">
-        <v>1453.501923047851</v>
+        <v>1495.18453242897</v>
       </c>
       <c r="P11" t="n">
-        <v>1719.877451830168</v>
+        <v>1632.243926624104</v>
       </c>
       <c r="Q11" t="n">
-        <v>1791.491063604352</v>
+        <v>1703.857538398287</v>
       </c>
       <c r="R11" t="n">
         <v>1791.491063604352</v>
       </c>
       <c r="S11" t="n">
-        <v>1671.195782153853</v>
+        <v>1791.491063604352</v>
       </c>
       <c r="T11" t="n">
-        <v>1671.195782153853</v>
+        <v>1791.491063604352</v>
       </c>
       <c r="U11" t="n">
-        <v>1671.195782153853</v>
+        <v>1791.491063604352</v>
       </c>
       <c r="V11" t="n">
-        <v>1671.195782153853</v>
+        <v>1791.491063604352</v>
       </c>
       <c r="W11" t="n">
-        <v>1671.195782153853</v>
+        <v>1791.491063604352</v>
       </c>
       <c r="X11" t="n">
-        <v>1671.195782153853</v>
+        <v>1791.491063604352</v>
       </c>
       <c r="Y11" t="n">
-        <v>1274.705073074454</v>
+        <v>1791.491063604352</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>708.4500022771996</v>
+        <v>395.2994232460954</v>
       </c>
       <c r="C12" t="n">
-        <v>557.7957718372918</v>
+        <v>244.6451928061876</v>
       </c>
       <c r="D12" t="n">
-        <v>427.7068044587722</v>
+        <v>244.6451928061876</v>
       </c>
       <c r="E12" t="n">
-        <v>291.2603135696599</v>
+        <v>244.6451928061876</v>
       </c>
       <c r="F12" t="n">
-        <v>166.8285074527917</v>
+        <v>244.6451928061876</v>
       </c>
       <c r="G12" t="n">
-        <v>47.85388783459651</v>
+        <v>125.6705731879924</v>
       </c>
       <c r="H12" t="n">
-        <v>47.85388783459651</v>
+        <v>47.8538878345965</v>
       </c>
       <c r="I12" t="n">
-        <v>35.82982127208705</v>
+        <v>35.82982127208704</v>
       </c>
       <c r="J12" t="n">
-        <v>54.69695449549361</v>
+        <v>249.431949475221</v>
       </c>
       <c r="K12" t="n">
-        <v>329.3922940110406</v>
+        <v>631.2577340747937</v>
       </c>
       <c r="L12" t="n">
-        <v>772.7863322531177</v>
+        <v>773.0350949020587</v>
       </c>
       <c r="M12" t="n">
-        <v>950.8157894444186</v>
+        <v>951.0645520933596</v>
       </c>
       <c r="N12" t="n">
-        <v>1142.922775819626</v>
+        <v>1143.171538468567</v>
       </c>
       <c r="O12" t="n">
-        <v>1586.316814061703</v>
+        <v>1304.469032976554</v>
       </c>
       <c r="P12" t="n">
-        <v>1703.20578058454</v>
+        <v>1421.357999499391</v>
       </c>
       <c r="Q12" t="n">
-        <v>1748.895481510255</v>
+        <v>1791.491063604352</v>
       </c>
       <c r="R12" t="n">
         <v>1791.491063604352</v>
       </c>
       <c r="S12" t="n">
-        <v>1702.209549834004</v>
+        <v>1750.975749522246</v>
       </c>
       <c r="T12" t="n">
-        <v>1702.209549834004</v>
+        <v>1578.366048452888</v>
       </c>
       <c r="U12" t="n">
-        <v>1492.2178011383</v>
+        <v>1368.374299757184</v>
       </c>
       <c r="V12" t="n">
-        <v>1269.677799509367</v>
+        <v>1145.834298128251</v>
       </c>
       <c r="W12" t="n">
-        <v>1039.560553642654</v>
+        <v>915.7170522615377</v>
       </c>
       <c r="X12" t="n">
-        <v>1039.560553642654</v>
+        <v>726.4099746115494</v>
       </c>
       <c r="Y12" t="n">
-        <v>860.2463367181609</v>
+        <v>547.0957576870567</v>
       </c>
     </row>
     <row r="13">
@@ -5175,40 +5175,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1095.021160589417</v>
+        <v>191.4629343695723</v>
       </c>
       <c r="C13" t="n">
-        <v>924.8160426554061</v>
+        <v>191.4629343695723</v>
       </c>
       <c r="D13" t="n">
-        <v>769.1829295579209</v>
+        <v>35.82982127208704</v>
       </c>
       <c r="E13" t="n">
-        <v>613.6241174171234</v>
+        <v>35.82982127208704</v>
       </c>
       <c r="F13" t="n">
-        <v>456.2981826300963</v>
+        <v>35.82982127208704</v>
       </c>
       <c r="G13" t="n">
-        <v>288.953922538422</v>
+        <v>35.82982127208704</v>
       </c>
       <c r="H13" t="n">
-        <v>141.5642655461412</v>
+        <v>35.82982127208704</v>
       </c>
       <c r="I13" t="n">
-        <v>35.82982127208705</v>
+        <v>35.82982127208704</v>
       </c>
       <c r="J13" t="n">
-        <v>69.09848475894705</v>
+        <v>69.09848475894682</v>
       </c>
       <c r="K13" t="n">
-        <v>254.5315649273076</v>
+        <v>254.5315649273075</v>
       </c>
       <c r="L13" t="n">
-        <v>551.2290272394</v>
+        <v>551.2290272393999</v>
       </c>
       <c r="M13" t="n">
-        <v>877.2968956781581</v>
+        <v>877.296895678158</v>
       </c>
       <c r="N13" t="n">
         <v>1196.939252046641</v>
@@ -5229,22 +5229,22 @@
         <v>1708.497712225303</v>
       </c>
       <c r="T13" t="n">
-        <v>1708.497712225303</v>
+        <v>1476.665961213297</v>
       </c>
       <c r="U13" t="n">
-        <v>1708.497712225303</v>
+        <v>1191.276794572046</v>
       </c>
       <c r="V13" t="n">
-        <v>1708.497712225303</v>
+        <v>925.2974493928704</v>
       </c>
       <c r="W13" t="n">
-        <v>1708.497712225303</v>
+        <v>641.9670473240481</v>
       </c>
       <c r="X13" t="n">
-        <v>1503.341240464075</v>
+        <v>599.7830142442302</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.229179280718</v>
+        <v>376.6709530608736</v>
       </c>
     </row>
     <row r="14">
@@ -5254,46 +5254,46 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>994.5056088135564</v>
+        <v>503.2112923313442</v>
       </c>
       <c r="C14" t="n">
-        <v>601.3301073164869</v>
+        <v>503.2112923313442</v>
       </c>
       <c r="D14" t="n">
-        <v>215.8889785331546</v>
+        <v>503.2112923313442</v>
       </c>
       <c r="E14" t="n">
-        <v>215.8889785331546</v>
+        <v>503.2112923313442</v>
       </c>
       <c r="F14" t="n">
-        <v>35.82982127208705</v>
+        <v>503.2112923313442</v>
       </c>
       <c r="G14" t="n">
-        <v>35.82982127208705</v>
+        <v>92.0767660506562</v>
       </c>
       <c r="H14" t="n">
-        <v>35.82982127208705</v>
+        <v>92.0767660506562</v>
       </c>
       <c r="I14" t="n">
-        <v>35.82982127208705</v>
+        <v>35.82982127208704</v>
       </c>
       <c r="J14" t="n">
         <v>349.1973608293694</v>
       </c>
       <c r="K14" t="n">
-        <v>544.6617247365754</v>
+        <v>460.4337383187916</v>
       </c>
       <c r="L14" t="n">
-        <v>988.0557629786525</v>
+        <v>622.4184459954201</v>
       </c>
       <c r="M14" t="n">
-        <v>1188.88009571932</v>
+        <v>882.5454516723757</v>
       </c>
       <c r="N14" t="n">
-        <v>1395.952951565348</v>
+        <v>1089.618307518404</v>
       </c>
       <c r="O14" t="n">
-        <v>1582.818057635035</v>
+        <v>1276.483413588091</v>
       </c>
       <c r="P14" t="n">
         <v>1719.877451830168</v>
@@ -5305,25 +5305,25 @@
         <v>1791.491063604352</v>
       </c>
       <c r="S14" t="n">
-        <v>1791.491063604352</v>
+        <v>1671.195782153852</v>
       </c>
       <c r="T14" t="n">
-        <v>1791.491063604352</v>
+        <v>1671.195782153852</v>
       </c>
       <c r="U14" t="n">
-        <v>1791.491063604352</v>
+        <v>1671.195782153852</v>
       </c>
       <c r="V14" t="n">
-        <v>1791.491063604352</v>
+        <v>1671.195782153852</v>
       </c>
       <c r="W14" t="n">
-        <v>1791.491063604352</v>
+        <v>1300.19674712214</v>
       </c>
       <c r="X14" t="n">
-        <v>1791.491063604352</v>
+        <v>1300.19674712214</v>
       </c>
       <c r="Y14" t="n">
-        <v>1395.000354524953</v>
+        <v>903.7060380427411</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>682.8292260077073</v>
+        <v>543.5811444999745</v>
       </c>
       <c r="C15" t="n">
-        <v>635.6124571906878</v>
+        <v>392.9269140600667</v>
       </c>
       <c r="D15" t="n">
-        <v>505.5234898121681</v>
+        <v>262.837946681547</v>
       </c>
       <c r="E15" t="n">
-        <v>369.0769989230558</v>
+        <v>126.3914557924347</v>
       </c>
       <c r="F15" t="n">
-        <v>244.6451928061876</v>
+        <v>125.6705731879924</v>
       </c>
       <c r="G15" t="n">
         <v>125.6705731879924</v>
       </c>
       <c r="H15" t="n">
-        <v>47.85388783459651</v>
+        <v>47.8538878345965</v>
       </c>
       <c r="I15" t="n">
-        <v>35.82982127208705</v>
+        <v>35.82982127208704</v>
       </c>
       <c r="J15" t="n">
-        <v>249.431949475221</v>
+        <v>221.4563278438436</v>
       </c>
       <c r="K15" t="n">
-        <v>332.4795213379896</v>
+        <v>304.5038997066122</v>
       </c>
       <c r="L15" t="n">
-        <v>775.8735595800667</v>
+        <v>446.2812605338772</v>
       </c>
       <c r="M15" t="n">
-        <v>993.4113715385155</v>
+        <v>624.3107177251781</v>
       </c>
       <c r="N15" t="n">
-        <v>1185.518357913723</v>
+        <v>816.4177041003852</v>
       </c>
       <c r="O15" t="n">
-        <v>1628.9123961558</v>
+        <v>1259.811742342462</v>
       </c>
       <c r="P15" t="n">
-        <v>1745.801362678637</v>
+        <v>1703.20578058454</v>
       </c>
       <c r="Q15" t="n">
-        <v>1791.491063604352</v>
+        <v>1748.895481510255</v>
       </c>
       <c r="R15" t="n">
         <v>1791.491063604352</v>
       </c>
       <c r="S15" t="n">
-        <v>1676.717469147193</v>
+        <v>1676.717469147192</v>
       </c>
       <c r="T15" t="n">
         <v>1504.107768077834</v>
       </c>
       <c r="U15" t="n">
-        <v>1504.107768077834</v>
+        <v>1294.11601938213</v>
       </c>
       <c r="V15" t="n">
-        <v>1281.567766448901</v>
+        <v>1294.11601938213</v>
       </c>
       <c r="W15" t="n">
-        <v>1051.450520582188</v>
+        <v>1063.998773515417</v>
       </c>
       <c r="X15" t="n">
-        <v>862.1434429322001</v>
+        <v>874.6916958654285</v>
       </c>
       <c r="Y15" t="n">
-        <v>682.8292260077073</v>
+        <v>695.3774789409358</v>
       </c>
     </row>
     <row r="16">
@@ -5412,31 +5412,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1095.021160589417</v>
+        <v>348.7145681999116</v>
       </c>
       <c r="C16" t="n">
-        <v>924.8160426554061</v>
+        <v>348.7145681999116</v>
       </c>
       <c r="D16" t="n">
-        <v>769.1829295579209</v>
+        <v>348.7145681999116</v>
       </c>
       <c r="E16" t="n">
-        <v>613.6241174171234</v>
+        <v>193.1557560591141</v>
       </c>
       <c r="F16" t="n">
-        <v>456.2981826300963</v>
+        <v>35.82982127208704</v>
       </c>
       <c r="G16" t="n">
-        <v>288.953922538422</v>
+        <v>35.82982127208704</v>
       </c>
       <c r="H16" t="n">
-        <v>141.5642655461412</v>
+        <v>35.82982127208704</v>
       </c>
       <c r="I16" t="n">
-        <v>35.82982127208705</v>
+        <v>35.82982127208704</v>
       </c>
       <c r="J16" t="n">
-        <v>69.09848475894705</v>
+        <v>69.09848475894717</v>
       </c>
       <c r="K16" t="n">
         <v>254.5315649273076</v>
@@ -5445,7 +5445,7 @@
         <v>551.2290272394</v>
       </c>
       <c r="M16" t="n">
-        <v>877.2968956781579</v>
+        <v>877.296895678158</v>
       </c>
       <c r="N16" t="n">
         <v>1196.939252046641</v>
@@ -5460,28 +5460,28 @@
         <v>1791.491063604352</v>
       </c>
       <c r="R16" t="n">
-        <v>1708.497712225303</v>
+        <v>1787.41411077698</v>
       </c>
       <c r="S16" t="n">
-        <v>1708.497712225303</v>
+        <v>1600.453251792467</v>
       </c>
       <c r="T16" t="n">
-        <v>1708.497712225303</v>
+        <v>1368.621500780462</v>
       </c>
       <c r="U16" t="n">
-        <v>1708.497712225303</v>
+        <v>1083.232334139211</v>
       </c>
       <c r="V16" t="n">
-        <v>1708.497712225303</v>
+        <v>817.2529889600353</v>
       </c>
       <c r="W16" t="n">
-        <v>1708.497712225303</v>
+        <v>533.9225868912129</v>
       </c>
       <c r="X16" t="n">
-        <v>1503.341240464075</v>
+        <v>533.9225868912129</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.229179280718</v>
+        <v>533.9225868912129</v>
       </c>
     </row>
     <row r="17">
@@ -5491,43 +5491,43 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1390.996317892955</v>
+        <v>994.5056088135561</v>
       </c>
       <c r="C17" t="n">
-        <v>997.8208163958857</v>
+        <v>601.3301073164866</v>
       </c>
       <c r="D17" t="n">
-        <v>612.3796876125534</v>
+        <v>601.3301073164866</v>
       </c>
       <c r="E17" t="n">
-        <v>209.7961627290979</v>
+        <v>198.7465824330312</v>
       </c>
       <c r="F17" t="n">
-        <v>35.82982127208705</v>
+        <v>35.82982127208704</v>
       </c>
       <c r="G17" t="n">
-        <v>35.82982127208705</v>
+        <v>35.82982127208704</v>
       </c>
       <c r="H17" t="n">
-        <v>35.82982127208705</v>
+        <v>35.82982127208704</v>
       </c>
       <c r="I17" t="n">
-        <v>35.82982127208705</v>
+        <v>35.82982127208704</v>
       </c>
       <c r="J17" t="n">
-        <v>88.04454835761867</v>
+        <v>151.9711015932673</v>
       </c>
       <c r="K17" t="n">
-        <v>199.2809258470409</v>
+        <v>263.2074790826895</v>
       </c>
       <c r="L17" t="n">
-        <v>642.674964089118</v>
+        <v>425.1921867593181</v>
       </c>
       <c r="M17" t="n">
-        <v>843.4992968297853</v>
+        <v>626.0165194999854</v>
       </c>
       <c r="N17" t="n">
-        <v>1089.618307518404</v>
+        <v>833.0893753460139</v>
       </c>
       <c r="O17" t="n">
         <v>1276.483413588091</v>
@@ -5560,7 +5560,7 @@
         <v>1791.491063604352</v>
       </c>
       <c r="Y17" t="n">
-        <v>1791.491063604352</v>
+        <v>1395.000354524953</v>
       </c>
     </row>
     <row r="18">
@@ -5570,49 +5570,49 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>453.0195099796268</v>
+        <v>435.8147373282011</v>
       </c>
       <c r="C18" t="n">
-        <v>302.365279539719</v>
+        <v>285.1605068882933</v>
       </c>
       <c r="D18" t="n">
-        <v>172.2763121611993</v>
+        <v>155.0715395097736</v>
       </c>
       <c r="E18" t="n">
-        <v>35.82982127208705</v>
+        <v>35.82982127208704</v>
       </c>
       <c r="F18" t="n">
-        <v>35.82982127208705</v>
+        <v>35.82982127208704</v>
       </c>
       <c r="G18" t="n">
-        <v>35.82982127208705</v>
+        <v>35.82982127208704</v>
       </c>
       <c r="H18" t="n">
-        <v>35.82982127208705</v>
+        <v>35.82982127208704</v>
       </c>
       <c r="I18" t="n">
-        <v>35.82982127208705</v>
+        <v>35.82982127208704</v>
       </c>
       <c r="J18" t="n">
-        <v>54.69695449549361</v>
+        <v>249.431949475221</v>
       </c>
       <c r="K18" t="n">
-        <v>498.0909927375708</v>
+        <v>332.4795213379896</v>
       </c>
       <c r="L18" t="n">
-        <v>730.439512807962</v>
+        <v>474.2568821652546</v>
       </c>
       <c r="M18" t="n">
-        <v>908.4689699992629</v>
+        <v>917.6509204073317</v>
       </c>
       <c r="N18" t="n">
-        <v>1100.57595637447</v>
+        <v>1109.757906782539</v>
       </c>
       <c r="O18" t="n">
-        <v>1261.873450882458</v>
+        <v>1271.055401290526</v>
       </c>
       <c r="P18" t="n">
-        <v>1378.762417405294</v>
+        <v>1387.944367813363</v>
       </c>
       <c r="Q18" t="n">
         <v>1748.895481510255</v>
@@ -5624,22 +5624,22 @@
         <v>1791.491063604352</v>
       </c>
       <c r="T18" t="n">
-        <v>1636.086135186419</v>
+        <v>1618.881362534994</v>
       </c>
       <c r="U18" t="n">
-        <v>1426.094386490715</v>
+        <v>1408.889613839289</v>
       </c>
       <c r="V18" t="n">
-        <v>1203.554384861782</v>
+        <v>1186.349612210357</v>
       </c>
       <c r="W18" t="n">
-        <v>973.4371389950691</v>
+        <v>956.2323663436434</v>
       </c>
       <c r="X18" t="n">
-        <v>784.1300613450808</v>
+        <v>766.9252886936551</v>
       </c>
       <c r="Y18" t="n">
-        <v>604.8158444205881</v>
+        <v>587.6110717691624</v>
       </c>
     </row>
     <row r="19">
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>595.8060490802931</v>
+        <v>444.9088848749085</v>
       </c>
       <c r="C19" t="n">
-        <v>425.6009311462823</v>
+        <v>444.9088848749085</v>
       </c>
       <c r="D19" t="n">
-        <v>269.967818048797</v>
+        <v>444.9088848749085</v>
       </c>
       <c r="E19" t="n">
-        <v>114.4090059079995</v>
+        <v>444.9088848749085</v>
       </c>
       <c r="F19" t="n">
-        <v>114.4090059079995</v>
+        <v>287.5829500878814</v>
       </c>
       <c r="G19" t="n">
-        <v>114.4090059079995</v>
+        <v>141.5642655461412</v>
       </c>
       <c r="H19" t="n">
-        <v>114.4090059079995</v>
+        <v>141.5642655461412</v>
       </c>
       <c r="I19" t="n">
-        <v>35.82982127208705</v>
+        <v>35.82982127208704</v>
       </c>
       <c r="J19" t="n">
         <v>69.09848475894705</v>
@@ -5697,28 +5697,28 @@
         <v>1791.491063604352</v>
       </c>
       <c r="R19" t="n">
-        <v>1708.497712225303</v>
+        <v>1791.491063604352</v>
       </c>
       <c r="S19" t="n">
-        <v>1521.53685324079</v>
+        <v>1604.53020461984</v>
       </c>
       <c r="T19" t="n">
-        <v>1521.53685324079</v>
+        <v>1372.698453607834</v>
       </c>
       <c r="U19" t="n">
-        <v>1521.53685324079</v>
+        <v>1087.309286966583</v>
       </c>
       <c r="V19" t="n">
-        <v>1521.53685324079</v>
+        <v>1087.309286966583</v>
       </c>
       <c r="W19" t="n">
-        <v>1238.206451171968</v>
+        <v>1087.309286966583</v>
       </c>
       <c r="X19" t="n">
-        <v>1004.126128954951</v>
+        <v>853.2289647495664</v>
       </c>
       <c r="Y19" t="n">
-        <v>781.0140677715943</v>
+        <v>630.1169035662098</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>605.0530037466133</v>
+        <v>677.0077925510752</v>
       </c>
       <c r="C20" t="n">
-        <v>211.8775022495439</v>
+        <v>677.0077925510752</v>
       </c>
       <c r="D20" t="n">
-        <v>211.8775022495439</v>
+        <v>452.7242597421093</v>
       </c>
       <c r="E20" t="n">
-        <v>211.8775022495439</v>
+        <v>452.7242597421093</v>
       </c>
       <c r="F20" t="n">
-        <v>211.8775022495439</v>
+        <v>35.82982127208704</v>
       </c>
       <c r="G20" t="n">
-        <v>35.82982127208705</v>
+        <v>35.82982127208704</v>
       </c>
       <c r="H20" t="n">
-        <v>35.82982127208705</v>
+        <v>35.82982127208704</v>
       </c>
       <c r="I20" t="n">
-        <v>35.82982127208705</v>
+        <v>35.82982127208704</v>
       </c>
       <c r="J20" t="n">
-        <v>88.04454835761867</v>
+        <v>88.04454835761865</v>
       </c>
       <c r="K20" t="n">
         <v>199.2809258470409</v>
       </c>
       <c r="L20" t="n">
-        <v>488.9571253048523</v>
+        <v>361.2656335236695</v>
       </c>
       <c r="M20" t="n">
-        <v>932.3511635469295</v>
+        <v>562.0899662643368</v>
       </c>
       <c r="N20" t="n">
-        <v>1139.424019392958</v>
+        <v>769.1628221103653</v>
       </c>
       <c r="O20" t="n">
-        <v>1582.818057635035</v>
+        <v>956.027928180052</v>
       </c>
       <c r="P20" t="n">
-        <v>1719.877451830168</v>
+        <v>1304.344655048947</v>
       </c>
       <c r="Q20" t="n">
-        <v>1791.491063604352</v>
+        <v>1703.857538398287</v>
       </c>
       <c r="R20" t="n">
         <v>1791.491063604352</v>
       </c>
       <c r="S20" t="n">
-        <v>1791.491063604352</v>
+        <v>1671.195782153852</v>
       </c>
       <c r="T20" t="n">
-        <v>1791.491063604352</v>
+        <v>1671.195782153852</v>
       </c>
       <c r="U20" t="n">
-        <v>1791.491063604352</v>
+        <v>1415.605310926956</v>
       </c>
       <c r="V20" t="n">
-        <v>1791.491063604352</v>
+        <v>1073.498501630474</v>
       </c>
       <c r="W20" t="n">
-        <v>1791.491063604352</v>
+        <v>1073.498501630474</v>
       </c>
       <c r="X20" t="n">
-        <v>1402.038458537409</v>
+        <v>1073.498501630474</v>
       </c>
       <c r="Y20" t="n">
-        <v>1005.54774945801</v>
+        <v>677.0077925510752</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>493.6508439403999</v>
+        <v>623.5883906281783</v>
       </c>
       <c r="C21" t="n">
-        <v>342.9966135004921</v>
+        <v>623.5883906281783</v>
       </c>
       <c r="D21" t="n">
-        <v>342.9966135004921</v>
+        <v>493.4994232496586</v>
       </c>
       <c r="E21" t="n">
-        <v>206.5501226113798</v>
+        <v>357.0529323605463</v>
       </c>
       <c r="F21" t="n">
-        <v>82.11831649451163</v>
+        <v>232.6211262436781</v>
       </c>
       <c r="G21" t="n">
-        <v>35.82982127208705</v>
+        <v>113.6465066254829</v>
       </c>
       <c r="H21" t="n">
-        <v>35.82982127208705</v>
+        <v>35.82982127208704</v>
       </c>
       <c r="I21" t="n">
-        <v>35.82982127208705</v>
+        <v>35.82982127208704</v>
       </c>
       <c r="J21" t="n">
         <v>249.431949475221</v>
       </c>
       <c r="K21" t="n">
-        <v>332.4795213379896</v>
+        <v>588.662151980697</v>
       </c>
       <c r="L21" t="n">
-        <v>474.2568821652546</v>
+        <v>730.439512807962</v>
       </c>
       <c r="M21" t="n">
-        <v>917.6509204073318</v>
+        <v>908.4689699992629</v>
       </c>
       <c r="N21" t="n">
-        <v>1143.171538468567</v>
+        <v>1100.57595637447</v>
       </c>
       <c r="O21" t="n">
-        <v>1304.469032976554</v>
+        <v>1261.873450882457</v>
       </c>
       <c r="P21" t="n">
-        <v>1421.357999499391</v>
+        <v>1378.762417405294</v>
       </c>
       <c r="Q21" t="n">
-        <v>1791.491063604352</v>
+        <v>1748.895481510255</v>
       </c>
       <c r="R21" t="n">
         <v>1791.491063604352</v>
       </c>
       <c r="S21" t="n">
-        <v>1676.717469147193</v>
+        <v>1676.717469147192</v>
       </c>
       <c r="T21" t="n">
-        <v>1676.717469147193</v>
+        <v>1504.107768077834</v>
       </c>
       <c r="U21" t="n">
-        <v>1466.725720451488</v>
+        <v>1294.11601938213</v>
       </c>
       <c r="V21" t="n">
-        <v>1244.185718822555</v>
+        <v>1071.576017753197</v>
       </c>
       <c r="W21" t="n">
-        <v>1014.068472955842</v>
+        <v>954.6989419936324</v>
       </c>
       <c r="X21" t="n">
-        <v>824.761395305854</v>
+        <v>954.6989419936324</v>
       </c>
       <c r="Y21" t="n">
-        <v>645.4471783813613</v>
+        <v>775.3847250691397</v>
       </c>
     </row>
     <row r="22">
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>841.897059323082</v>
+        <v>682.5857601148556</v>
       </c>
       <c r="C22" t="n">
-        <v>671.6919413890712</v>
+        <v>661.7556635943249</v>
       </c>
       <c r="D22" t="n">
-        <v>516.058828291586</v>
+        <v>506.1225504968397</v>
       </c>
       <c r="E22" t="n">
-        <v>360.5000161507884</v>
+        <v>350.5637383560422</v>
       </c>
       <c r="F22" t="n">
-        <v>203.1740813637614</v>
+        <v>350.5637383560422</v>
       </c>
       <c r="G22" t="n">
-        <v>35.82982127208705</v>
+        <v>183.2194782643679</v>
       </c>
       <c r="H22" t="n">
-        <v>35.82982127208705</v>
+        <v>35.82982127208704</v>
       </c>
       <c r="I22" t="n">
-        <v>35.82982127208705</v>
+        <v>35.82982127208704</v>
       </c>
       <c r="J22" t="n">
         <v>69.09848475894705</v>
@@ -5934,28 +5934,28 @@
         <v>1791.491063604352</v>
       </c>
       <c r="R22" t="n">
-        <v>1791.491063604352</v>
+        <v>1708.497712225303</v>
       </c>
       <c r="S22" t="n">
-        <v>1791.491063604352</v>
+        <v>1708.497712225303</v>
       </c>
       <c r="T22" t="n">
-        <v>1791.491063604352</v>
+        <v>1708.497712225303</v>
       </c>
       <c r="U22" t="n">
-        <v>1791.491063604352</v>
+        <v>1423.108545584052</v>
       </c>
       <c r="V22" t="n">
-        <v>1767.627863483579</v>
+        <v>1423.108545584052</v>
       </c>
       <c r="W22" t="n">
-        <v>1484.297461414757</v>
+        <v>1139.778143515229</v>
       </c>
       <c r="X22" t="n">
-        <v>1250.21713919774</v>
+        <v>905.6978212982123</v>
       </c>
       <c r="Y22" t="n">
-        <v>1027.105078014383</v>
+        <v>682.5857601148556</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>823.9408504251327</v>
+        <v>1275.936709778897</v>
       </c>
       <c r="C23" t="n">
-        <v>430.7653489280632</v>
+        <v>1275.936709778897</v>
       </c>
       <c r="D23" t="n">
-        <v>45.32422014473101</v>
+        <v>1275.936709778897</v>
       </c>
       <c r="E23" t="n">
-        <v>45.32422014473101</v>
+        <v>873.3531848954412</v>
       </c>
       <c r="F23" t="n">
-        <v>45.32422014473101</v>
+        <v>456.458746425419</v>
       </c>
       <c r="G23" t="n">
-        <v>45.32422014473101</v>
+        <v>45.32422014473102</v>
       </c>
       <c r="H23" t="n">
-        <v>45.32422014473101</v>
+        <v>45.32422014473102</v>
       </c>
       <c r="I23" t="n">
-        <v>45.32422014473101</v>
+        <v>45.32422014473102</v>
       </c>
       <c r="J23" t="n">
-        <v>97.53894723026264</v>
+        <v>358.6917597020133</v>
       </c>
       <c r="K23" t="n">
-        <v>658.4261715213088</v>
+        <v>469.9281371914356</v>
       </c>
       <c r="L23" t="n">
-        <v>1021.327812959768</v>
+        <v>631.9128448680642</v>
       </c>
       <c r="M23" t="n">
-        <v>1222.152145700435</v>
+        <v>832.7371776087315</v>
       </c>
       <c r="N23" t="n">
-        <v>1783.039369991481</v>
+        <v>1039.81003345476</v>
       </c>
       <c r="O23" t="n">
-        <v>1969.904476061168</v>
+        <v>1226.675139524447</v>
       </c>
       <c r="P23" t="n">
-        <v>2106.963870256302</v>
+        <v>1779.064598681146</v>
       </c>
       <c r="Q23" t="n">
-        <v>2178.577482030485</v>
+        <v>2178.577482030486</v>
       </c>
       <c r="R23" t="n">
-        <v>2266.21100723655</v>
+        <v>2266.211007236551</v>
       </c>
       <c r="S23" t="n">
-        <v>2266.21100723655</v>
+        <v>2145.915725786052</v>
       </c>
       <c r="T23" t="n">
-        <v>2266.21100723655</v>
+        <v>2145.915725786052</v>
       </c>
       <c r="U23" t="n">
-        <v>2266.21100723655</v>
+        <v>1890.325254559155</v>
       </c>
       <c r="V23" t="n">
-        <v>1991.925340247641</v>
+        <v>1676.431455490294</v>
       </c>
       <c r="W23" t="n">
-        <v>1620.926305215928</v>
+        <v>1676.431455490294</v>
       </c>
       <c r="X23" t="n">
-        <v>1620.926305215928</v>
+        <v>1676.431455490294</v>
       </c>
       <c r="Y23" t="n">
-        <v>1224.43559613653</v>
+        <v>1676.431455490294</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>795.7610865032395</v>
+        <v>795.7610865032402</v>
       </c>
       <c r="C24" t="n">
-        <v>645.1068560633317</v>
+        <v>645.1068560633323</v>
       </c>
       <c r="D24" t="n">
-        <v>515.0178886848121</v>
+        <v>515.0178886848128</v>
       </c>
       <c r="E24" t="n">
-        <v>378.5713977956999</v>
+        <v>378.5713977957005</v>
       </c>
       <c r="F24" t="n">
-        <v>254.1395916788317</v>
+        <v>254.1395916788321</v>
       </c>
       <c r="G24" t="n">
-        <v>135.1649720606365</v>
+        <v>135.1649720606367</v>
       </c>
       <c r="H24" t="n">
-        <v>57.34828670724047</v>
+        <v>57.34828670724084</v>
       </c>
       <c r="I24" t="n">
-        <v>45.32422014473101</v>
+        <v>45.32422014473102</v>
       </c>
       <c r="J24" t="n">
-        <v>258.9263483478649</v>
+        <v>258.926348347865</v>
       </c>
       <c r="K24" t="n">
-        <v>341.9739202106335</v>
+        <v>750.4140322528601</v>
       </c>
       <c r="L24" t="n">
-        <v>483.7512810378985</v>
+        <v>892.1913930801252</v>
       </c>
       <c r="M24" t="n">
-        <v>939.2623091118088</v>
+        <v>1070.220850271426</v>
       </c>
       <c r="N24" t="n">
-        <v>1500.149533402855</v>
+        <v>1262.327836646633</v>
       </c>
       <c r="O24" t="n">
-        <v>2061.036757693901</v>
+        <v>1423.625331154621</v>
       </c>
       <c r="P24" t="n">
-        <v>2177.925724216738</v>
+        <v>1896.07794313159</v>
       </c>
       <c r="Q24" t="n">
-        <v>2223.615425142453</v>
+        <v>2266.211007236551</v>
       </c>
       <c r="R24" t="n">
-        <v>2266.21100723655</v>
+        <v>2266.211007236551</v>
       </c>
       <c r="S24" t="n">
-        <v>2151.43741277939</v>
+        <v>2151.437412779391</v>
       </c>
       <c r="T24" t="n">
-        <v>1978.827711710032</v>
+        <v>1978.827711710033</v>
       </c>
       <c r="U24" t="n">
-        <v>1768.835963014328</v>
+        <v>1768.835963014329</v>
       </c>
       <c r="V24" t="n">
-        <v>1546.295961385395</v>
+        <v>1546.295961385396</v>
       </c>
       <c r="W24" t="n">
-        <v>1316.178715518682</v>
+        <v>1316.178715518683</v>
       </c>
       <c r="X24" t="n">
         <v>1126.871637868694</v>
       </c>
       <c r="Y24" t="n">
-        <v>947.5574209442009</v>
+        <v>947.5574209442016</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>510.5497649042857</v>
+        <v>45.32422014473102</v>
       </c>
       <c r="C25" t="n">
-        <v>510.5497649042857</v>
+        <v>45.32422014473102</v>
       </c>
       <c r="D25" t="n">
-        <v>510.5497649042857</v>
+        <v>45.32422014473102</v>
       </c>
       <c r="E25" t="n">
-        <v>510.5497649042857</v>
+        <v>45.32422014473102</v>
       </c>
       <c r="F25" t="n">
-        <v>510.5497649042857</v>
+        <v>45.32422014473102</v>
       </c>
       <c r="G25" t="n">
-        <v>510.5497649042857</v>
+        <v>45.32422014473102</v>
       </c>
       <c r="H25" t="n">
-        <v>510.5497649042857</v>
+        <v>45.32422014473102</v>
       </c>
       <c r="I25" t="n">
-        <v>510.5497649042857</v>
+        <v>45.32422014473102</v>
       </c>
       <c r="J25" t="n">
-        <v>543.8184283911457</v>
+        <v>78.59288363159104</v>
       </c>
       <c r="K25" t="n">
-        <v>729.2515085595063</v>
+        <v>264.0259637999516</v>
       </c>
       <c r="L25" t="n">
-        <v>1025.948970871599</v>
+        <v>560.723426112044</v>
       </c>
       <c r="M25" t="n">
-        <v>1352.016839310357</v>
+        <v>886.7912945508019</v>
       </c>
       <c r="N25" t="n">
-        <v>1671.65919567884</v>
+        <v>1206.433650919285</v>
       </c>
       <c r="O25" t="n">
-        <v>1960.40013731212</v>
+        <v>1495.174592552566</v>
       </c>
       <c r="P25" t="n">
-        <v>2188.122023873769</v>
+        <v>1722.896479114215</v>
       </c>
       <c r="Q25" t="n">
-        <v>2266.21100723655</v>
+        <v>1800.985462476996</v>
       </c>
       <c r="R25" t="n">
-        <v>2266.21100723655</v>
+        <v>1800.985462476996</v>
       </c>
       <c r="S25" t="n">
-        <v>2219.480831897215</v>
+        <v>1614.024603492484</v>
       </c>
       <c r="T25" t="n">
-        <v>1987.64908088521</v>
+        <v>1382.192852480478</v>
       </c>
       <c r="U25" t="n">
-        <v>1702.259914243959</v>
+        <v>1096.803685839227</v>
       </c>
       <c r="V25" t="n">
-        <v>1436.280569064783</v>
+        <v>830.8243406600517</v>
       </c>
       <c r="W25" t="n">
-        <v>1152.95016699596</v>
+        <v>547.4939385912294</v>
       </c>
       <c r="X25" t="n">
-        <v>918.8698447789436</v>
+        <v>313.4136163742124</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.7577835955869</v>
+        <v>90.30155519085579</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>462.2186586147532</v>
+        <v>541.4976791370323</v>
       </c>
       <c r="C26" t="n">
-        <v>462.2186586147532</v>
+        <v>541.4976791370323</v>
       </c>
       <c r="D26" t="n">
-        <v>462.2186586147532</v>
+        <v>541.4976791370323</v>
       </c>
       <c r="E26" t="n">
-        <v>462.2186586147532</v>
+        <v>541.4976791370323</v>
       </c>
       <c r="F26" t="n">
-        <v>45.32422014473101</v>
+        <v>541.4976791370323</v>
       </c>
       <c r="G26" t="n">
-        <v>45.32422014473101</v>
+        <v>130.3631528563443</v>
       </c>
       <c r="H26" t="n">
-        <v>45.32422014473101</v>
+        <v>45.32422014473102</v>
       </c>
       <c r="I26" t="n">
-        <v>45.32422014473101</v>
+        <v>45.32422014473102</v>
       </c>
       <c r="J26" t="n">
-        <v>97.53894723026264</v>
+        <v>358.6917597020133</v>
       </c>
       <c r="K26" t="n">
-        <v>208.7753247196849</v>
+        <v>469.9281371914356</v>
       </c>
       <c r="L26" t="n">
-        <v>769.6625490107311</v>
+        <v>631.9128448680642</v>
       </c>
       <c r="M26" t="n">
-        <v>1330.549773301777</v>
+        <v>832.7371776087315</v>
       </c>
       <c r="N26" t="n">
-        <v>1783.039369991481</v>
+        <v>1039.81003345476</v>
       </c>
       <c r="O26" t="n">
-        <v>1969.904476061168</v>
+        <v>1226.675139524447</v>
       </c>
       <c r="P26" t="n">
-        <v>2106.963870256302</v>
+        <v>1779.064598681146</v>
       </c>
       <c r="Q26" t="n">
-        <v>2178.577482030485</v>
+        <v>2178.577482030486</v>
       </c>
       <c r="R26" t="n">
-        <v>2266.21100723655</v>
+        <v>2266.211007236551</v>
       </c>
       <c r="S26" t="n">
-        <v>2145.915725786051</v>
+        <v>2266.211007236551</v>
       </c>
       <c r="T26" t="n">
-        <v>1931.293696805522</v>
+        <v>2051.588978256022</v>
       </c>
       <c r="U26" t="n">
-        <v>1675.703225578626</v>
+        <v>2051.588978256022</v>
       </c>
       <c r="V26" t="n">
-        <v>1333.596416282144</v>
+        <v>1709.482168959541</v>
       </c>
       <c r="W26" t="n">
-        <v>962.5973812504312</v>
+        <v>1338.483133927828</v>
       </c>
       <c r="X26" t="n">
-        <v>573.144776183488</v>
+        <v>1338.483133927828</v>
       </c>
       <c r="Y26" t="n">
-        <v>462.2186586147532</v>
+        <v>941.9924248484292</v>
       </c>
     </row>
     <row r="27">
@@ -6281,61 +6281,61 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>795.7610865032395</v>
+        <v>795.7610865032398</v>
       </c>
       <c r="C27" t="n">
-        <v>645.1068560633317</v>
+        <v>645.1068560633319</v>
       </c>
       <c r="D27" t="n">
-        <v>515.0178886848121</v>
+        <v>515.0178886848123</v>
       </c>
       <c r="E27" t="n">
-        <v>378.5713977956997</v>
+        <v>378.5713977957</v>
       </c>
       <c r="F27" t="n">
-        <v>254.1395916788316</v>
+        <v>254.1395916788317</v>
       </c>
       <c r="G27" t="n">
-        <v>135.1649720606364</v>
+        <v>135.1649720606367</v>
       </c>
       <c r="H27" t="n">
-        <v>57.34828670724047</v>
+        <v>57.34828670724048</v>
       </c>
       <c r="I27" t="n">
-        <v>45.32422014473101</v>
+        <v>45.32422014473102</v>
       </c>
       <c r="J27" t="n">
         <v>64.19135336813758</v>
       </c>
       <c r="K27" t="n">
-        <v>147.2389252309062</v>
+        <v>555.6790372731327</v>
       </c>
       <c r="L27" t="n">
-        <v>708.1261495219525</v>
+        <v>761.1611986719511</v>
       </c>
       <c r="M27" t="n">
-        <v>886.1556067132533</v>
+        <v>939.1906558632519</v>
       </c>
       <c r="N27" t="n">
-        <v>1078.262593088461</v>
+        <v>1131.297642238459</v>
       </c>
       <c r="O27" t="n">
-        <v>1292.595136746446</v>
+        <v>1292.595136746447</v>
       </c>
       <c r="P27" t="n">
-        <v>1853.482361037492</v>
+        <v>1853.482361037493</v>
       </c>
       <c r="Q27" t="n">
-        <v>2223.615425142453</v>
+        <v>2223.615425142454</v>
       </c>
       <c r="R27" t="n">
-        <v>2266.21100723655</v>
+        <v>2266.211007236551</v>
       </c>
       <c r="S27" t="n">
-        <v>2151.43741277939</v>
+        <v>2151.437412779391</v>
       </c>
       <c r="T27" t="n">
-        <v>1978.827711710032</v>
+        <v>1978.827711710033</v>
       </c>
       <c r="U27" t="n">
         <v>1768.835963014328</v>
@@ -6350,7 +6350,7 @@
         <v>1126.871637868694</v>
       </c>
       <c r="Y27" t="n">
-        <v>947.5574209442009</v>
+        <v>947.5574209442011</v>
       </c>
     </row>
     <row r="28">
@@ -6360,31 +6360,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>609.275313137323</v>
+        <v>732.20622637073</v>
       </c>
       <c r="C28" t="n">
-        <v>439.0701952033122</v>
+        <v>732.20622637073</v>
       </c>
       <c r="D28" t="n">
-        <v>283.437082105827</v>
+        <v>576.5731132732446</v>
       </c>
       <c r="E28" t="n">
-        <v>202.6501549317581</v>
+        <v>421.0143011324471</v>
       </c>
       <c r="F28" t="n">
-        <v>45.32422014473101</v>
+        <v>421.0143011324471</v>
       </c>
       <c r="G28" t="n">
-        <v>45.32422014473101</v>
+        <v>253.6700410407728</v>
       </c>
       <c r="H28" t="n">
-        <v>45.32422014473101</v>
+        <v>106.280384048492</v>
       </c>
       <c r="I28" t="n">
-        <v>45.32422014473101</v>
+        <v>45.32422014473102</v>
       </c>
       <c r="J28" t="n">
-        <v>78.59288363159102</v>
+        <v>78.59288363159104</v>
       </c>
       <c r="K28" t="n">
         <v>264.0259637999516</v>
@@ -6417,19 +6417,19 @@
         <v>1800.985462476996</v>
       </c>
       <c r="U28" t="n">
-        <v>1800.985462476996</v>
+        <v>1515.596295835745</v>
       </c>
       <c r="V28" t="n">
-        <v>1535.00611729782</v>
+        <v>1249.616950656569</v>
       </c>
       <c r="W28" t="n">
-        <v>1251.675715228998</v>
+        <v>966.2865485877469</v>
       </c>
       <c r="X28" t="n">
-        <v>1017.595393011981</v>
+        <v>732.20622637073</v>
       </c>
       <c r="Y28" t="n">
-        <v>794.4833318286243</v>
+        <v>732.20622637073</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1469.225552445755</v>
+        <v>1218.849417397692</v>
       </c>
       <c r="C29" t="n">
-        <v>1076.050050948685</v>
+        <v>825.6739159006223</v>
       </c>
       <c r="D29" t="n">
-        <v>1076.050050948685</v>
+        <v>825.6739159006223</v>
       </c>
       <c r="E29" t="n">
-        <v>673.4665260652296</v>
+        <v>825.6739159006223</v>
       </c>
       <c r="F29" t="n">
-        <v>256.5720875952073</v>
+        <v>408.7794774306001</v>
       </c>
       <c r="G29" t="n">
-        <v>45.32422014473101</v>
+        <v>408.7794774306001</v>
       </c>
       <c r="H29" t="n">
-        <v>45.32422014473101</v>
+        <v>105.4680296122324</v>
       </c>
       <c r="I29" t="n">
-        <v>45.32422014473101</v>
+        <v>45.32422014473102</v>
       </c>
       <c r="J29" t="n">
-        <v>97.53894723026264</v>
+        <v>358.6917597020133</v>
       </c>
       <c r="K29" t="n">
-        <v>527.8663640984449</v>
+        <v>469.9281371914356</v>
       </c>
       <c r="L29" t="n">
-        <v>1088.753588389491</v>
+        <v>631.9128448680642</v>
       </c>
       <c r="M29" t="n">
-        <v>1289.577921130159</v>
+        <v>832.7371776087315</v>
       </c>
       <c r="N29" t="n">
-        <v>1496.650776976187</v>
+        <v>1039.81003345476</v>
       </c>
       <c r="O29" t="n">
-        <v>2057.538001267233</v>
+        <v>1226.675139524447</v>
       </c>
       <c r="P29" t="n">
-        <v>2194.597395462366</v>
+        <v>1779.064598681146</v>
       </c>
       <c r="Q29" t="n">
-        <v>2266.21100723655</v>
+        <v>2178.577482030486</v>
       </c>
       <c r="R29" t="n">
-        <v>2266.21100723655</v>
+        <v>2266.211007236551</v>
       </c>
       <c r="S29" t="n">
-        <v>2266.21100723655</v>
+        <v>2176.073001386099</v>
       </c>
       <c r="T29" t="n">
-        <v>2266.21100723655</v>
+        <v>1961.45097240557</v>
       </c>
       <c r="U29" t="n">
-        <v>2266.21100723655</v>
+        <v>1961.45097240557</v>
       </c>
       <c r="V29" t="n">
-        <v>2266.21100723655</v>
+        <v>1619.344163109089</v>
       </c>
       <c r="W29" t="n">
-        <v>2266.21100723655</v>
+        <v>1619.344163109089</v>
       </c>
       <c r="X29" t="n">
-        <v>2266.21100723655</v>
+        <v>1619.344163109089</v>
       </c>
       <c r="Y29" t="n">
-        <v>1869.720298157152</v>
+        <v>1619.344163109089</v>
       </c>
     </row>
     <row r="30">
@@ -6518,61 +6518,61 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>795.7610865032395</v>
+        <v>795.7610865032398</v>
       </c>
       <c r="C30" t="n">
-        <v>645.1068560633317</v>
+        <v>645.1068560633319</v>
       </c>
       <c r="D30" t="n">
-        <v>515.0178886848121</v>
+        <v>515.0178886848123</v>
       </c>
       <c r="E30" t="n">
-        <v>378.5713977956997</v>
+        <v>378.5713977957</v>
       </c>
       <c r="F30" t="n">
-        <v>254.1395916788316</v>
+        <v>254.1395916788317</v>
       </c>
       <c r="G30" t="n">
-        <v>135.1649720606364</v>
+        <v>135.1649720606367</v>
       </c>
       <c r="H30" t="n">
-        <v>57.34828670724047</v>
+        <v>57.34828670724048</v>
       </c>
       <c r="I30" t="n">
-        <v>45.32422014473101</v>
+        <v>45.32422014473102</v>
       </c>
       <c r="J30" t="n">
-        <v>64.19135336813758</v>
+        <v>258.926348347865</v>
       </c>
       <c r="K30" t="n">
-        <v>555.6790372731327</v>
+        <v>750.4140322528601</v>
       </c>
       <c r="L30" t="n">
-        <v>1116.566261564179</v>
+        <v>892.1913930801252</v>
       </c>
       <c r="M30" t="n">
-        <v>1294.59571875548</v>
+        <v>1070.220850271426</v>
       </c>
       <c r="N30" t="n">
-        <v>1486.702705130687</v>
+        <v>1262.327836646633</v>
       </c>
       <c r="O30" t="n">
-        <v>2047.589929421733</v>
+        <v>1423.625331154621</v>
       </c>
       <c r="P30" t="n">
-        <v>2164.47889594457</v>
+        <v>1853.482361037493</v>
       </c>
       <c r="Q30" t="n">
-        <v>2266.21100723655</v>
+        <v>2223.615425142454</v>
       </c>
       <c r="R30" t="n">
-        <v>2266.21100723655</v>
+        <v>2266.211007236551</v>
       </c>
       <c r="S30" t="n">
-        <v>2151.43741277939</v>
+        <v>2151.437412779391</v>
       </c>
       <c r="T30" t="n">
-        <v>1978.827711710032</v>
+        <v>1978.827711710033</v>
       </c>
       <c r="U30" t="n">
         <v>1768.835963014328</v>
@@ -6587,7 +6587,7 @@
         <v>1126.871637868694</v>
       </c>
       <c r="Y30" t="n">
-        <v>947.5574209442009</v>
+        <v>947.5574209442011</v>
       </c>
     </row>
     <row r="31">
@@ -6597,31 +6597,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>377.443562125318</v>
+        <v>372.8552728657688</v>
       </c>
       <c r="C31" t="n">
-        <v>207.2384441913072</v>
+        <v>202.6501549317581</v>
       </c>
       <c r="D31" t="n">
-        <v>51.60533109382192</v>
+        <v>202.6501549317581</v>
       </c>
       <c r="E31" t="n">
-        <v>45.32422014473101</v>
+        <v>202.6501549317581</v>
       </c>
       <c r="F31" t="n">
-        <v>45.32422014473101</v>
+        <v>45.32422014473102</v>
       </c>
       <c r="G31" t="n">
-        <v>45.32422014473101</v>
+        <v>45.32422014473102</v>
       </c>
       <c r="H31" t="n">
-        <v>45.32422014473101</v>
+        <v>45.32422014473102</v>
       </c>
       <c r="I31" t="n">
-        <v>45.32422014473101</v>
+        <v>45.32422014473102</v>
       </c>
       <c r="J31" t="n">
-        <v>78.59288363159102</v>
+        <v>78.59288363159104</v>
       </c>
       <c r="K31" t="n">
         <v>264.0259637999516</v>
@@ -6648,25 +6648,25 @@
         <v>1800.985462476996</v>
       </c>
       <c r="S31" t="n">
-        <v>1800.985462476996</v>
+        <v>1614.024603492484</v>
       </c>
       <c r="T31" t="n">
-        <v>1569.153711464991</v>
+        <v>1566.62418677787</v>
       </c>
       <c r="U31" t="n">
-        <v>1569.153711464991</v>
+        <v>1281.235020136619</v>
       </c>
       <c r="V31" t="n">
-        <v>1303.174366285815</v>
+        <v>1015.255674957444</v>
       </c>
       <c r="W31" t="n">
-        <v>1019.843964216993</v>
+        <v>1015.255674957444</v>
       </c>
       <c r="X31" t="n">
-        <v>785.7636419999759</v>
+        <v>781.1753527404268</v>
       </c>
       <c r="Y31" t="n">
-        <v>562.6515808166192</v>
+        <v>558.0632915570701</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1226.524375308588</v>
+        <v>1279.212516499227</v>
       </c>
       <c r="C32" t="n">
-        <v>833.3488738115187</v>
+        <v>1279.212516499227</v>
       </c>
       <c r="D32" t="n">
-        <v>447.9077450281865</v>
+        <v>1176.664632713809</v>
       </c>
       <c r="E32" t="n">
-        <v>45.324220144731</v>
+        <v>1176.664632713809</v>
       </c>
       <c r="F32" t="n">
-        <v>45.324220144731</v>
+        <v>759.7701942437867</v>
       </c>
       <c r="G32" t="n">
-        <v>45.324220144731</v>
+        <v>348.6356679630987</v>
       </c>
       <c r="H32" t="n">
-        <v>45.324220144731</v>
+        <v>45.32422014473102</v>
       </c>
       <c r="I32" t="n">
-        <v>45.324220144731</v>
+        <v>45.32422014473102</v>
       </c>
       <c r="J32" t="n">
         <v>358.6917597020133</v>
       </c>
       <c r="K32" t="n">
-        <v>919.5789839930594</v>
+        <v>469.9281371914356</v>
       </c>
       <c r="L32" t="n">
-        <v>1134.876435035694</v>
+        <v>631.9128448680642</v>
       </c>
       <c r="M32" t="n">
-        <v>1335.700767776361</v>
+        <v>832.7371776087315</v>
       </c>
       <c r="N32" t="n">
-        <v>1542.773623622389</v>
+        <v>1039.81003345476</v>
       </c>
       <c r="O32" t="n">
-        <v>1729.638729692076</v>
+        <v>1226.675139524447</v>
       </c>
       <c r="P32" t="n">
-        <v>1866.698123887209</v>
+        <v>1779.064598681146</v>
       </c>
       <c r="Q32" t="n">
-        <v>2266.21100723655</v>
+        <v>2178.577482030486</v>
       </c>
       <c r="R32" t="n">
-        <v>2266.21100723655</v>
+        <v>2266.211007236551</v>
       </c>
       <c r="S32" t="n">
-        <v>2266.21100723655</v>
+        <v>2145.915725786052</v>
       </c>
       <c r="T32" t="n">
-        <v>2266.21100723655</v>
+        <v>1931.293696805523</v>
       </c>
       <c r="U32" t="n">
-        <v>2266.21100723655</v>
+        <v>1675.703225578626</v>
       </c>
       <c r="V32" t="n">
-        <v>2266.21100723655</v>
+        <v>1675.703225578626</v>
       </c>
       <c r="W32" t="n">
-        <v>2266.21100723655</v>
+        <v>1675.703225578626</v>
       </c>
       <c r="X32" t="n">
-        <v>2023.509830099384</v>
+        <v>1675.703225578626</v>
       </c>
       <c r="Y32" t="n">
-        <v>1627.019121019985</v>
+        <v>1279.212516499227</v>
       </c>
     </row>
     <row r="33">
@@ -6764,7 +6764,7 @@
         <v>515.0178886848121</v>
       </c>
       <c r="E33" t="n">
-        <v>378.5713977956998</v>
+        <v>378.5713977956997</v>
       </c>
       <c r="F33" t="n">
         <v>254.1395916788316</v>
@@ -6773,34 +6773,34 @@
         <v>135.1649720606364</v>
       </c>
       <c r="H33" t="n">
-        <v>57.34828670724046</v>
+        <v>57.34828670724048</v>
       </c>
       <c r="I33" t="n">
-        <v>45.324220144731</v>
+        <v>45.32422014473102</v>
       </c>
       <c r="J33" t="n">
-        <v>258.9263483478649</v>
+        <v>258.926348347865</v>
       </c>
       <c r="K33" t="n">
-        <v>750.41403225286</v>
+        <v>750.4140322528601</v>
       </c>
       <c r="L33" t="n">
-        <v>892.191393080125</v>
+        <v>892.1913930801252</v>
       </c>
       <c r="M33" t="n">
         <v>1070.220850271426</v>
       </c>
       <c r="N33" t="n">
-        <v>1631.108074562472</v>
+        <v>1262.327836646633</v>
       </c>
       <c r="O33" t="n">
-        <v>2103.632339787998</v>
+        <v>1423.625331154621</v>
       </c>
       <c r="P33" t="n">
-        <v>2220.521306310834</v>
+        <v>1853.482361037492</v>
       </c>
       <c r="Q33" t="n">
-        <v>2266.21100723655</v>
+        <v>2223.615425142453</v>
       </c>
       <c r="R33" t="n">
         <v>2266.21100723655</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>510.5497649042853</v>
+        <v>323.886146496072</v>
       </c>
       <c r="C34" t="n">
-        <v>510.5497649042853</v>
+        <v>153.6810285620612</v>
       </c>
       <c r="D34" t="n">
-        <v>510.5497649042853</v>
+        <v>153.6810285620612</v>
       </c>
       <c r="E34" t="n">
-        <v>510.5497649042853</v>
+        <v>153.6810285620612</v>
       </c>
       <c r="F34" t="n">
-        <v>510.5497649042853</v>
+        <v>153.6810285620612</v>
       </c>
       <c r="G34" t="n">
-        <v>510.5497649042853</v>
+        <v>45.32422014473102</v>
       </c>
       <c r="H34" t="n">
-        <v>510.5497649042853</v>
+        <v>45.32422014473102</v>
       </c>
       <c r="I34" t="n">
-        <v>510.5497649042853</v>
+        <v>45.32422014473102</v>
       </c>
       <c r="J34" t="n">
-        <v>543.8184283911453</v>
+        <v>78.59288363159104</v>
       </c>
       <c r="K34" t="n">
-        <v>729.2515085595059</v>
+        <v>264.0259637999516</v>
       </c>
       <c r="L34" t="n">
-        <v>1025.948970871598</v>
+        <v>560.723426112044</v>
       </c>
       <c r="M34" t="n">
-        <v>1352.016839310356</v>
+        <v>886.7912945508019</v>
       </c>
       <c r="N34" t="n">
-        <v>1671.659195678839</v>
+        <v>1206.433650919285</v>
       </c>
       <c r="O34" t="n">
-        <v>1960.40013731212</v>
+        <v>1495.174592552566</v>
       </c>
       <c r="P34" t="n">
-        <v>2188.122023873769</v>
+        <v>1722.896479114215</v>
       </c>
       <c r="Q34" t="n">
-        <v>2266.21100723655</v>
+        <v>1800.985462476996</v>
       </c>
       <c r="R34" t="n">
-        <v>2221.233672190425</v>
+        <v>1800.985462476996</v>
       </c>
       <c r="S34" t="n">
-        <v>2034.272813205913</v>
+        <v>1800.985462476996</v>
       </c>
       <c r="T34" t="n">
-        <v>1802.441062193908</v>
+        <v>1800.985462476996</v>
       </c>
       <c r="U34" t="n">
-        <v>1517.051895552657</v>
+        <v>1515.596295835745</v>
       </c>
       <c r="V34" t="n">
-        <v>1251.072550373481</v>
+        <v>1249.616950656569</v>
       </c>
       <c r="W34" t="n">
-        <v>967.7421483046588</v>
+        <v>966.2865485877469</v>
       </c>
       <c r="X34" t="n">
-        <v>733.6618260876419</v>
+        <v>732.20622637073</v>
       </c>
       <c r="Y34" t="n">
-        <v>510.5497649042853</v>
+        <v>509.0941651873733</v>
       </c>
     </row>
     <row r="35">
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>433.342142982318</v>
+        <v>535.3352492505842</v>
       </c>
       <c r="C35" t="n">
-        <v>433.342142982318</v>
+        <v>535.3352492505842</v>
       </c>
       <c r="D35" t="n">
-        <v>47.90101419898576</v>
+        <v>535.3352492505842</v>
       </c>
       <c r="E35" t="n">
-        <v>47.90101419898576</v>
+        <v>535.3352492505842</v>
       </c>
       <c r="F35" t="n">
-        <v>35.82982127208704</v>
+        <v>446.964347552775</v>
       </c>
       <c r="G35" t="n">
         <v>35.82982127208704</v>
@@ -6937,28 +6937,28 @@
         <v>35.82982127208704</v>
       </c>
       <c r="J35" t="n">
-        <v>88.04454835761865</v>
+        <v>349.1973608293694</v>
       </c>
       <c r="K35" t="n">
-        <v>199.2809258470409</v>
+        <v>460.4337383187916</v>
       </c>
       <c r="L35" t="n">
-        <v>509.1648750811938</v>
+        <v>622.4184459954201</v>
       </c>
       <c r="M35" t="n">
-        <v>952.5589133232709</v>
+        <v>823.2427787360874</v>
       </c>
       <c r="N35" t="n">
-        <v>1395.952951565348</v>
+        <v>1030.315634582116</v>
       </c>
       <c r="O35" t="n">
-        <v>1582.818057635035</v>
+        <v>1217.180740651803</v>
       </c>
       <c r="P35" t="n">
-        <v>1719.877451830168</v>
+        <v>1354.240134846936</v>
       </c>
       <c r="Q35" t="n">
-        <v>1791.491063604352</v>
+        <v>1703.857538398287</v>
       </c>
       <c r="R35" t="n">
         <v>1791.491063604352</v>
@@ -6967,22 +6967,22 @@
         <v>1791.491063604352</v>
       </c>
       <c r="T35" t="n">
-        <v>1791.491063604352</v>
+        <v>1576.869034623823</v>
       </c>
       <c r="U35" t="n">
-        <v>1535.900592377455</v>
+        <v>1321.278563396926</v>
       </c>
       <c r="V35" t="n">
-        <v>1193.793783080974</v>
+        <v>1321.278563396926</v>
       </c>
       <c r="W35" t="n">
-        <v>822.7947480492612</v>
+        <v>1321.278563396926</v>
       </c>
       <c r="X35" t="n">
-        <v>433.342142982318</v>
+        <v>931.8259583299831</v>
       </c>
       <c r="Y35" t="n">
-        <v>433.342142982318</v>
+        <v>535.3352492505842</v>
       </c>
     </row>
     <row r="36">
@@ -6992,22 +6992,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>760.2207728385206</v>
+        <v>493.6508439403997</v>
       </c>
       <c r="C36" t="n">
-        <v>609.5665423986128</v>
+        <v>342.9966135004919</v>
       </c>
       <c r="D36" t="n">
-        <v>479.4775750200931</v>
+        <v>212.9076461219722</v>
       </c>
       <c r="E36" t="n">
-        <v>343.0310841309808</v>
+        <v>76.46115523285994</v>
       </c>
       <c r="F36" t="n">
-        <v>218.5992780141127</v>
+        <v>35.82982127208704</v>
       </c>
       <c r="G36" t="n">
-        <v>99.62465839591748</v>
+        <v>35.82982127208704</v>
       </c>
       <c r="H36" t="n">
         <v>35.82982127208704</v>
@@ -7016,25 +7016,25 @@
         <v>35.82982127208704</v>
       </c>
       <c r="J36" t="n">
-        <v>54.69695449549361</v>
+        <v>249.431949475221</v>
       </c>
       <c r="K36" t="n">
-        <v>137.7445263582622</v>
+        <v>332.4795213379896</v>
       </c>
       <c r="L36" t="n">
-        <v>279.5218871855272</v>
+        <v>730.439512807962</v>
       </c>
       <c r="M36" t="n">
-        <v>699.5287375775483</v>
+        <v>908.4689699992629</v>
       </c>
       <c r="N36" t="n">
-        <v>1142.922775819625</v>
+        <v>1100.57595637447</v>
       </c>
       <c r="O36" t="n">
-        <v>1586.316814061703</v>
+        <v>1261.873450882457</v>
       </c>
       <c r="P36" t="n">
-        <v>1703.20578058454</v>
+        <v>1378.762417405294</v>
       </c>
       <c r="Q36" t="n">
         <v>1748.895481510255</v>
@@ -7043,25 +7043,25 @@
         <v>1791.491063604352</v>
       </c>
       <c r="S36" t="n">
-        <v>1791.491063604352</v>
+        <v>1676.717469147192</v>
       </c>
       <c r="T36" t="n">
-        <v>1791.491063604352</v>
+        <v>1676.717469147192</v>
       </c>
       <c r="U36" t="n">
-        <v>1581.499314908648</v>
+        <v>1466.725720451488</v>
       </c>
       <c r="V36" t="n">
-        <v>1358.959313279715</v>
+        <v>1244.185718822555</v>
       </c>
       <c r="W36" t="n">
-        <v>1128.842067413002</v>
+        <v>1014.068472955842</v>
       </c>
       <c r="X36" t="n">
-        <v>939.5349897630133</v>
+        <v>824.7613953058537</v>
       </c>
       <c r="Y36" t="n">
-        <v>760.2207728385206</v>
+        <v>645.447178381361</v>
       </c>
     </row>
     <row r="37">
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>269.7981696482346</v>
+        <v>464.5416387353008</v>
       </c>
       <c r="C37" t="n">
-        <v>269.7981696482346</v>
+        <v>464.5416387353008</v>
       </c>
       <c r="D37" t="n">
-        <v>269.7981696482346</v>
+        <v>308.9085256378155</v>
       </c>
       <c r="E37" t="n">
-        <v>269.7981696482346</v>
+        <v>308.9085256378155</v>
       </c>
       <c r="F37" t="n">
-        <v>112.4722348612075</v>
+        <v>308.9085256378155</v>
       </c>
       <c r="G37" t="n">
-        <v>112.4722348612075</v>
+        <v>141.5642655461412</v>
       </c>
       <c r="H37" t="n">
-        <v>112.4722348612075</v>
+        <v>141.5642655461412</v>
       </c>
       <c r="I37" t="n">
         <v>35.82982127208704</v>
@@ -7101,7 +7101,7 @@
         <v>254.5315649273076</v>
       </c>
       <c r="L37" t="n">
-        <v>551.2290272394</v>
+        <v>551.2290272393999</v>
       </c>
       <c r="M37" t="n">
         <v>877.296895678158</v>
@@ -7119,28 +7119,28 @@
         <v>1791.491063604352</v>
       </c>
       <c r="R37" t="n">
-        <v>1708.497712225303</v>
+        <v>1791.491063604352</v>
       </c>
       <c r="S37" t="n">
-        <v>1521.53685324079</v>
+        <v>1656.061981442391</v>
       </c>
       <c r="T37" t="n">
-        <v>1289.705102228785</v>
+        <v>1424.230230430385</v>
       </c>
       <c r="U37" t="n">
-        <v>1004.315935587534</v>
+        <v>1138.841063789134</v>
       </c>
       <c r="V37" t="n">
-        <v>738.3365904083582</v>
+        <v>872.8617186099586</v>
       </c>
       <c r="W37" t="n">
-        <v>455.0061883395359</v>
+        <v>872.8617186099586</v>
       </c>
       <c r="X37" t="n">
-        <v>455.0061883395359</v>
+        <v>872.8617186099586</v>
       </c>
       <c r="Y37" t="n">
-        <v>455.0061883395359</v>
+        <v>649.749657426602</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1390.996317892955</v>
+        <v>452.7242597421093</v>
       </c>
       <c r="C38" t="n">
-        <v>1390.996317892955</v>
+        <v>452.7242597421093</v>
       </c>
       <c r="D38" t="n">
-        <v>1390.996317892955</v>
+        <v>452.7242597421093</v>
       </c>
       <c r="E38" t="n">
-        <v>988.4127930094994</v>
+        <v>452.7242597421093</v>
       </c>
       <c r="F38" t="n">
-        <v>571.5183545394772</v>
+        <v>35.82982127208704</v>
       </c>
       <c r="G38" t="n">
-        <v>160.3838282587892</v>
+        <v>35.82982127208704</v>
       </c>
       <c r="H38" t="n">
-        <v>95.97363073958837</v>
+        <v>35.82982127208704</v>
       </c>
       <c r="I38" t="n">
         <v>35.82982127208704</v>
       </c>
       <c r="J38" t="n">
-        <v>299.3018810313798</v>
+        <v>349.1973608293694</v>
       </c>
       <c r="K38" t="n">
-        <v>410.5382585208021</v>
+        <v>460.4337383187916</v>
       </c>
       <c r="L38" t="n">
-        <v>572.5229661974307</v>
+        <v>622.4184459954201</v>
       </c>
       <c r="M38" t="n">
-        <v>773.347298938098</v>
+        <v>823.2427787360874</v>
       </c>
       <c r="N38" t="n">
-        <v>980.4201547841265</v>
+        <v>1030.315634582116</v>
       </c>
       <c r="O38" t="n">
-        <v>1167.285260853813</v>
+        <v>1217.180740651803</v>
       </c>
       <c r="P38" t="n">
-        <v>1304.344655048947</v>
+        <v>1354.240134846936</v>
       </c>
       <c r="Q38" t="n">
-        <v>1703.857538398287</v>
+        <v>1753.753018196277</v>
       </c>
       <c r="R38" t="n">
         <v>1791.491063604352</v>
       </c>
       <c r="S38" t="n">
-        <v>1791.491063604352</v>
+        <v>1671.195782153852</v>
       </c>
       <c r="T38" t="n">
-        <v>1791.491063604352</v>
+        <v>1456.573753173323</v>
       </c>
       <c r="U38" t="n">
-        <v>1791.491063604352</v>
+        <v>1213.175899840765</v>
       </c>
       <c r="V38" t="n">
-        <v>1791.491063604352</v>
+        <v>1213.175899840765</v>
       </c>
       <c r="W38" t="n">
-        <v>1791.491063604352</v>
+        <v>842.1768648090524</v>
       </c>
       <c r="X38" t="n">
-        <v>1791.491063604352</v>
+        <v>452.7242597421093</v>
       </c>
       <c r="Y38" t="n">
-        <v>1791.491063604352</v>
+        <v>452.7242597421093</v>
       </c>
     </row>
     <row r="39">
@@ -7229,25 +7229,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>321.0411428710415</v>
+        <v>441.9051622193023</v>
       </c>
       <c r="C39" t="n">
-        <v>321.0411428710415</v>
+        <v>291.2509317793945</v>
       </c>
       <c r="D39" t="n">
-        <v>321.0411428710415</v>
+        <v>291.2509317793945</v>
       </c>
       <c r="E39" t="n">
-        <v>321.0411428710415</v>
+        <v>154.8044408902822</v>
       </c>
       <c r="F39" t="n">
-        <v>196.6093367541733</v>
+        <v>154.8044408902822</v>
       </c>
       <c r="G39" t="n">
-        <v>125.6705731879924</v>
+        <v>35.82982127208704</v>
       </c>
       <c r="H39" t="n">
-        <v>47.8538878345965</v>
+        <v>35.82982127208704</v>
       </c>
       <c r="I39" t="n">
         <v>35.82982127208704</v>
@@ -7256,25 +7256,25 @@
         <v>54.69695449549361</v>
       </c>
       <c r="K39" t="n">
-        <v>137.7445263582622</v>
+        <v>498.0909927375707</v>
       </c>
       <c r="L39" t="n">
-        <v>298.7302814295682</v>
+        <v>639.8683535648357</v>
       </c>
       <c r="M39" t="n">
-        <v>742.1243196716453</v>
+        <v>817.8978107561366</v>
       </c>
       <c r="N39" t="n">
-        <v>1185.518357913722</v>
+        <v>1010.004797131344</v>
       </c>
       <c r="O39" t="n">
-        <v>1628.9123961558</v>
+        <v>1171.302291639331</v>
       </c>
       <c r="P39" t="n">
-        <v>1745.801362678636</v>
+        <v>1378.762417405294</v>
       </c>
       <c r="Q39" t="n">
-        <v>1791.491063604352</v>
+        <v>1748.895481510255</v>
       </c>
       <c r="R39" t="n">
         <v>1791.491063604352</v>
@@ -7283,22 +7283,22 @@
         <v>1676.717469147192</v>
       </c>
       <c r="T39" t="n">
-        <v>1504.107768077834</v>
+        <v>1624.971787426095</v>
       </c>
       <c r="U39" t="n">
-        <v>1294.11601938213</v>
+        <v>1414.980038730391</v>
       </c>
       <c r="V39" t="n">
-        <v>1071.576017753197</v>
+        <v>1192.440037101458</v>
       </c>
       <c r="W39" t="n">
-        <v>841.4587718864839</v>
+        <v>962.3227912347447</v>
       </c>
       <c r="X39" t="n">
-        <v>652.1516942364956</v>
+        <v>773.0157135847564</v>
       </c>
       <c r="Y39" t="n">
-        <v>472.8374773120028</v>
+        <v>593.7014966602636</v>
       </c>
     </row>
     <row r="40">
@@ -7335,10 +7335,10 @@
         <v>69.09848475894705</v>
       </c>
       <c r="K40" t="n">
-        <v>254.5315649273075</v>
+        <v>254.5315649273076</v>
       </c>
       <c r="L40" t="n">
-        <v>551.2290272393999</v>
+        <v>551.2290272394</v>
       </c>
       <c r="M40" t="n">
         <v>877.296895678158</v>
@@ -7387,52 +7387,52 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1240.748913408897</v>
+        <v>1277.173785903446</v>
       </c>
       <c r="C41" t="n">
-        <v>1240.748913408897</v>
+        <v>883.9982844063761</v>
       </c>
       <c r="D41" t="n">
-        <v>855.3077846255648</v>
+        <v>498.5571556230439</v>
       </c>
       <c r="E41" t="n">
-        <v>452.7242597421093</v>
+        <v>95.97363073958837</v>
       </c>
       <c r="F41" t="n">
-        <v>35.82982127208705</v>
+        <v>95.97363073958837</v>
       </c>
       <c r="G41" t="n">
-        <v>35.82982127208705</v>
+        <v>95.97363073958837</v>
       </c>
       <c r="H41" t="n">
-        <v>35.82982127208705</v>
+        <v>95.97363073958837</v>
       </c>
       <c r="I41" t="n">
-        <v>35.82982127208705</v>
+        <v>35.82982127208704</v>
       </c>
       <c r="J41" t="n">
-        <v>299.3018810313803</v>
+        <v>349.1973608293694</v>
       </c>
       <c r="K41" t="n">
-        <v>410.5382585208026</v>
+        <v>460.4337383187916</v>
       </c>
       <c r="L41" t="n">
-        <v>572.5229661974312</v>
+        <v>622.4184459954201</v>
       </c>
       <c r="M41" t="n">
-        <v>773.3472989380984</v>
+        <v>823.2427787360874</v>
       </c>
       <c r="N41" t="n">
-        <v>980.4201547841269</v>
+        <v>1030.315634582116</v>
       </c>
       <c r="O41" t="n">
-        <v>1167.285260853814</v>
+        <v>1217.180740651803</v>
       </c>
       <c r="P41" t="n">
-        <v>1304.344655048947</v>
+        <v>1354.240134846936</v>
       </c>
       <c r="Q41" t="n">
-        <v>1703.857538398287</v>
+        <v>1753.753018196277</v>
       </c>
       <c r="R41" t="n">
         <v>1791.491063604352</v>
@@ -7447,16 +7447,16 @@
         <v>1791.491063604352</v>
       </c>
       <c r="V41" t="n">
-        <v>1637.239622488296</v>
+        <v>1791.491063604352</v>
       </c>
       <c r="W41" t="n">
-        <v>1637.239622488296</v>
+        <v>1791.491063604352</v>
       </c>
       <c r="X41" t="n">
-        <v>1637.239622488296</v>
+        <v>1791.491063604352</v>
       </c>
       <c r="Y41" t="n">
-        <v>1240.748913408897</v>
+        <v>1395.000354524953</v>
       </c>
     </row>
     <row r="42">
@@ -7466,46 +7466,46 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>786.2666876305956</v>
+        <v>465.0435765421362</v>
       </c>
       <c r="C42" t="n">
-        <v>635.6124571906878</v>
+        <v>314.3893461022284</v>
       </c>
       <c r="D42" t="n">
-        <v>505.5234898121681</v>
+        <v>184.3003787237088</v>
       </c>
       <c r="E42" t="n">
-        <v>369.0769989230558</v>
+        <v>47.8538878345965</v>
       </c>
       <c r="F42" t="n">
-        <v>244.6451928061876</v>
+        <v>47.8538878345965</v>
       </c>
       <c r="G42" t="n">
-        <v>125.6705731879924</v>
+        <v>47.8538878345965</v>
       </c>
       <c r="H42" t="n">
-        <v>47.85388783459651</v>
+        <v>47.8538878345965</v>
       </c>
       <c r="I42" t="n">
-        <v>35.82982127208705</v>
+        <v>35.82982127208704</v>
       </c>
       <c r="J42" t="n">
         <v>249.431949475221</v>
       </c>
       <c r="K42" t="n">
-        <v>332.4795213379896</v>
+        <v>588.662151980697</v>
       </c>
       <c r="L42" t="n">
-        <v>474.2568821652546</v>
+        <v>730.439512807962</v>
       </c>
       <c r="M42" t="n">
-        <v>652.2863393565553</v>
+        <v>908.4689699992629</v>
       </c>
       <c r="N42" t="n">
-        <v>844.3933257317625</v>
+        <v>1100.57595637447</v>
       </c>
       <c r="O42" t="n">
-        <v>1005.69082023975</v>
+        <v>1261.873450882457</v>
       </c>
       <c r="P42" t="n">
         <v>1378.762417405294</v>
@@ -7517,25 +7517,25 @@
         <v>1791.491063604352</v>
       </c>
       <c r="S42" t="n">
-        <v>1676.717469147193</v>
+        <v>1791.491063604352</v>
       </c>
       <c r="T42" t="n">
-        <v>1676.717469147193</v>
+        <v>1648.110201748929</v>
       </c>
       <c r="U42" t="n">
-        <v>1466.725720451488</v>
+        <v>1438.118453053225</v>
       </c>
       <c r="V42" t="n">
-        <v>1244.185718822555</v>
+        <v>1215.578451424292</v>
       </c>
       <c r="W42" t="n">
-        <v>1014.068472955842</v>
+        <v>985.4612055575785</v>
       </c>
       <c r="X42" t="n">
-        <v>1014.068472955842</v>
+        <v>796.1541279075902</v>
       </c>
       <c r="Y42" t="n">
-        <v>938.0630220715569</v>
+        <v>616.8399109830975</v>
       </c>
     </row>
     <row r="43">
@@ -7545,37 +7545,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>35.82982127208705</v>
+        <v>771.5841310238015</v>
       </c>
       <c r="C43" t="n">
-        <v>35.82982127208705</v>
+        <v>771.5841310238015</v>
       </c>
       <c r="D43" t="n">
-        <v>35.82982127208705</v>
+        <v>615.9510179263164</v>
       </c>
       <c r="E43" t="n">
-        <v>35.82982127208705</v>
+        <v>460.3922057855189</v>
       </c>
       <c r="F43" t="n">
-        <v>35.82982127208705</v>
+        <v>303.0662709984918</v>
       </c>
       <c r="G43" t="n">
-        <v>35.82982127208705</v>
+        <v>183.2194782643679</v>
       </c>
       <c r="H43" t="n">
-        <v>35.82982127208705</v>
+        <v>35.82982127208704</v>
       </c>
       <c r="I43" t="n">
-        <v>35.82982127208705</v>
+        <v>35.82982127208704</v>
       </c>
       <c r="J43" t="n">
-        <v>69.09848475894705</v>
+        <v>69.09848475894682</v>
       </c>
       <c r="K43" t="n">
-        <v>254.5315649273076</v>
+        <v>254.5315649273075</v>
       </c>
       <c r="L43" t="n">
-        <v>551.2290272394</v>
+        <v>551.2290272393999</v>
       </c>
       <c r="M43" t="n">
         <v>877.296895678158</v>
@@ -7593,28 +7593,28 @@
         <v>1791.491063604352</v>
       </c>
       <c r="R43" t="n">
-        <v>1746.513728558228</v>
+        <v>1791.491063604352</v>
       </c>
       <c r="S43" t="n">
-        <v>1559.552869573715</v>
+        <v>1791.491063604352</v>
       </c>
       <c r="T43" t="n">
-        <v>1327.72111856171</v>
+        <v>1791.491063604352</v>
       </c>
       <c r="U43" t="n">
-        <v>1042.331951920459</v>
+        <v>1506.101896963101</v>
       </c>
       <c r="V43" t="n">
-        <v>776.3526067412829</v>
+        <v>1240.122551783925</v>
       </c>
       <c r="W43" t="n">
-        <v>493.0222046724606</v>
+        <v>956.7921497151028</v>
       </c>
       <c r="X43" t="n">
-        <v>258.9418824554437</v>
+        <v>956.7921497151028</v>
       </c>
       <c r="Y43" t="n">
-        <v>35.82982127208705</v>
+        <v>956.7921497151028</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>72.93315850360335</v>
+        <v>1449.38425430787</v>
       </c>
       <c r="C44" t="n">
-        <v>35.82982127208705</v>
+        <v>1449.38425430787</v>
       </c>
       <c r="D44" t="n">
-        <v>35.82982127208705</v>
+        <v>1167.170233841165</v>
       </c>
       <c r="E44" t="n">
-        <v>35.82982127208705</v>
+        <v>1167.170233841165</v>
       </c>
       <c r="F44" t="n">
-        <v>35.82982127208705</v>
+        <v>750.2757953711427</v>
       </c>
       <c r="G44" t="n">
-        <v>35.82982127208705</v>
+        <v>339.1412690904548</v>
       </c>
       <c r="H44" t="n">
-        <v>35.82982127208705</v>
+        <v>35.82982127208704</v>
       </c>
       <c r="I44" t="n">
-        <v>35.82982127208705</v>
+        <v>35.82982127208704</v>
       </c>
       <c r="J44" t="n">
-        <v>299.3018810313803</v>
+        <v>349.1973608293694</v>
       </c>
       <c r="K44" t="n">
-        <v>410.5382585208026</v>
+        <v>792.5913990714464</v>
       </c>
       <c r="L44" t="n">
-        <v>572.5229661974312</v>
+        <v>988.0557629786523</v>
       </c>
       <c r="M44" t="n">
-        <v>773.3472989380984</v>
+        <v>1188.88009571932</v>
       </c>
       <c r="N44" t="n">
-        <v>980.4201547841269</v>
+        <v>1395.952951565348</v>
       </c>
       <c r="O44" t="n">
-        <v>1167.285260853814</v>
+        <v>1582.818057635035</v>
       </c>
       <c r="P44" t="n">
-        <v>1304.344655048947</v>
+        <v>1719.877451830168</v>
       </c>
       <c r="Q44" t="n">
-        <v>1703.857538398287</v>
+        <v>1791.491063604352</v>
       </c>
       <c r="R44" t="n">
         <v>1791.491063604352</v>
       </c>
       <c r="S44" t="n">
-        <v>1671.195782153853</v>
+        <v>1791.491063604352</v>
       </c>
       <c r="T44" t="n">
-        <v>1456.573753173324</v>
+        <v>1791.491063604352</v>
       </c>
       <c r="U44" t="n">
-        <v>1200.983281946427</v>
+        <v>1791.491063604352</v>
       </c>
       <c r="V44" t="n">
-        <v>858.8764726499454</v>
+        <v>1449.38425430787</v>
       </c>
       <c r="W44" t="n">
-        <v>858.8764726499454</v>
+        <v>1449.38425430787</v>
       </c>
       <c r="X44" t="n">
-        <v>469.4238675830022</v>
+        <v>1449.38425430787</v>
       </c>
       <c r="Y44" t="n">
-        <v>72.93315850360335</v>
+        <v>1449.38425430787</v>
       </c>
     </row>
     <row r="45">
@@ -7703,10 +7703,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>321.0411428710417</v>
+        <v>525.3883906246151</v>
       </c>
       <c r="C45" t="n">
-        <v>244.6451928061876</v>
+        <v>374.7341601847073</v>
       </c>
       <c r="D45" t="n">
         <v>244.6451928061876</v>
@@ -7721,58 +7721,58 @@
         <v>125.6705731879924</v>
       </c>
       <c r="H45" t="n">
-        <v>47.85388783459651</v>
+        <v>47.8538878345965</v>
       </c>
       <c r="I45" t="n">
-        <v>35.82982127208705</v>
+        <v>35.82982127208704</v>
       </c>
       <c r="J45" t="n">
         <v>249.431949475221</v>
       </c>
       <c r="K45" t="n">
-        <v>631.2577340747941</v>
+        <v>588.662151980697</v>
       </c>
       <c r="L45" t="n">
-        <v>773.0350949020592</v>
+        <v>730.439512807962</v>
       </c>
       <c r="M45" t="n">
-        <v>951.06455209336</v>
+        <v>908.4689699992629</v>
       </c>
       <c r="N45" t="n">
-        <v>1143.171538468567</v>
+        <v>1100.57595637447</v>
       </c>
       <c r="O45" t="n">
-        <v>1304.469032976554</v>
+        <v>1261.873450882457</v>
       </c>
       <c r="P45" t="n">
-        <v>1421.357999499391</v>
+        <v>1378.762417405294</v>
       </c>
       <c r="Q45" t="n">
-        <v>1791.491063604352</v>
+        <v>1748.895481510255</v>
       </c>
       <c r="R45" t="n">
         <v>1791.491063604352</v>
       </c>
       <c r="S45" t="n">
-        <v>1676.717469147193</v>
+        <v>1701.750499976273</v>
       </c>
       <c r="T45" t="n">
-        <v>1504.107768077834</v>
+        <v>1529.140798906915</v>
       </c>
       <c r="U45" t="n">
-        <v>1294.11601938213</v>
+        <v>1319.149050211211</v>
       </c>
       <c r="V45" t="n">
-        <v>1071.576017753197</v>
+        <v>1096.609048582278</v>
       </c>
       <c r="W45" t="n">
-        <v>841.4587718864841</v>
+        <v>866.4918027155647</v>
       </c>
       <c r="X45" t="n">
-        <v>652.1516942364958</v>
+        <v>677.1847250655765</v>
       </c>
       <c r="Y45" t="n">
-        <v>472.837477312003</v>
+        <v>677.1847250655765</v>
       </c>
     </row>
     <row r="46">
@@ -7782,34 +7782,34 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>780.2872435054618</v>
+        <v>361.9155334958589</v>
       </c>
       <c r="C46" t="n">
-        <v>610.082125571451</v>
+        <v>191.7104155618481</v>
       </c>
       <c r="D46" t="n">
-        <v>454.4490124739658</v>
+        <v>191.7104155618481</v>
       </c>
       <c r="E46" t="n">
-        <v>298.8902003331683</v>
+        <v>36.15160342105059</v>
       </c>
       <c r="F46" t="n">
-        <v>141.5642655461412</v>
+        <v>36.15160342105059</v>
       </c>
       <c r="G46" t="n">
-        <v>141.5642655461412</v>
+        <v>36.15160342105059</v>
       </c>
       <c r="H46" t="n">
-        <v>141.5642655461412</v>
+        <v>35.82982127208704</v>
       </c>
       <c r="I46" t="n">
-        <v>35.82982127208705</v>
+        <v>35.82982127208704</v>
       </c>
       <c r="J46" t="n">
         <v>69.09848475894705</v>
       </c>
       <c r="K46" t="n">
-        <v>254.5315649273076</v>
+        <v>254.5315649273075</v>
       </c>
       <c r="L46" t="n">
         <v>551.2290272393999</v>
@@ -7821,7 +7821,7 @@
         <v>1196.939252046641</v>
       </c>
       <c r="O46" t="n">
-        <v>1485.680193679922</v>
+        <v>1485.680193679921</v>
       </c>
       <c r="P46" t="n">
         <v>1713.402080241571</v>
@@ -7830,28 +7830,28 @@
         <v>1791.491063604352</v>
       </c>
       <c r="R46" t="n">
-        <v>1791.491063604352</v>
+        <v>1708.497712225303</v>
       </c>
       <c r="S46" t="n">
-        <v>1791.491063604352</v>
+        <v>1521.53685324079</v>
       </c>
       <c r="T46" t="n">
-        <v>1791.491063604352</v>
+        <v>1289.705102228785</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.666990776312</v>
+        <v>1004.315935587534</v>
       </c>
       <c r="V46" t="n">
-        <v>1422.687645597136</v>
+        <v>1004.315935587534</v>
       </c>
       <c r="W46" t="n">
-        <v>1422.687645597136</v>
+        <v>1004.315935587534</v>
       </c>
       <c r="X46" t="n">
-        <v>1188.60732338012</v>
+        <v>770.2356133705168</v>
       </c>
       <c r="Y46" t="n">
-        <v>965.4952621967631</v>
+        <v>547.1235521871602</v>
       </c>
     </row>
   </sheetData>
@@ -8695,25 +8695,25 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>280.8119108860277</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>238.7082650465138</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>130.6223581688725</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>13.99890267249438</v>
+        <v>102.5176150018526</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8768,13 +8768,13 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K12" t="n">
-        <v>193.583603689675</v>
+        <v>301.7961744816203</v>
       </c>
       <c r="L12" t="n">
-        <v>304.6633105200123</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8783,16 +8783,16 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>284.9460037718079</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R12" t="n">
-        <v>71.01380490566048</v>
+        <v>27.98796440657266</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8856,7 +8856,7 @@
         <v>253.4605344048249</v>
       </c>
       <c r="M13" t="n">
-        <v>278.4750710187353</v>
+        <v>278.4750710187352</v>
       </c>
       <c r="N13" t="n">
         <v>268.0356382773604</v>
@@ -8929,13 +8929,13 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K14" t="n">
-        <v>85.07877415937753</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>284.2518490560087</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>59.90168983463468</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -8944,7 +8944,7 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>309.4289333807512</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -9005,16 +9005,16 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J15" t="n">
-        <v>196.7020151310378</v>
+        <v>168.4438114629798</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>304.6633105200123</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>39.90742905772518</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -9023,13 +9023,13 @@
         <v>284.9460037718078</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>329.8031027467073</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>27.98796440657266</v>
+        <v>71.01380490566048</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9163,25 +9163,25 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>64.57227599560466</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>284.2518490560086</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>39.44056044706127</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>259.120133507465</v>
       </c>
       <c r="P17" t="n">
-        <v>309.4289333807513</v>
+        <v>309.4289333807512</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -9242,16 +9242,16 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K18" t="n">
-        <v>363.9863296760691</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>91.48601943750126</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>268.0450313644205</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -9263,7 +9263,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>327.7205688679246</v>
+        <v>318.4458714860367</v>
       </c>
       <c r="R18" t="n">
         <v>71.01380490566048</v>
@@ -9406,25 +9406,25 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>128.9813048294776</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>245.0199045468786</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>259.1201335074651</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>213.3912451250114</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R20" t="n">
-        <v>13.99890267249438</v>
+        <v>102.5176150018526</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9482,16 +9482,16 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>258.7703339825327</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>268.0450313644205</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>33.75114311720017</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -9503,7 +9503,7 @@
         <v>327.7205688679246</v>
       </c>
       <c r="R21" t="n">
-        <v>27.98796440657266</v>
+        <v>71.01380490566048</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9637,28 +9637,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K23" t="n">
-        <v>454.1927745470948</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>202.9463977392226</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>357.3882509545634</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>419.5253181429953</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R23" t="n">
         <v>102.5176150018526</v>
@@ -9719,28 +9719,28 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>280.2844150329388</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>372.5052908240798</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>403.6259896798574</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>359.1551974284167</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R24" t="n">
-        <v>71.01380490566048</v>
+        <v>27.98796440657266</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9874,28 +9874,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>402.9318349640582</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>363.6998904549283</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>247.8956978218945</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>419.5253181429953</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R26" t="n">
         <v>102.5176150018526</v>
@@ -9956,10 +9956,10 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L27" t="n">
-        <v>423.3432964280619</v>
+        <v>64.34828340560941</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9968,10 +9968,10 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>53.57075671716959</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>448.483088654757</v>
+        <v>448.4830886547571</v>
       </c>
       <c r="Q27" t="n">
         <v>327.7205688679246</v>
@@ -10111,13 +10111,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K29" t="n">
-        <v>322.3141811906667</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>402.9318349640582</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -10126,16 +10126,16 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>377.8001194155146</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>419.5253181429953</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R29" t="n">
-        <v>13.99890267249438</v>
+        <v>102.5176150018526</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10190,13 +10190,13 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K30" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L30" t="n">
-        <v>423.3432964280619</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10205,16 +10205,16 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>403.6259896798574</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>316.1293569293287</v>
       </c>
       <c r="Q30" t="n">
-        <v>56.60849531945945</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R30" t="n">
-        <v>27.98796440657266</v>
+        <v>71.01380490566048</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10351,10 +10351,10 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K32" t="n">
-        <v>454.1927745470948</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>53.85125592525827</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -10366,13 +10366,13 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>419.5253181429953</v>
       </c>
       <c r="Q32" t="n">
         <v>331.2113854294513</v>
       </c>
       <c r="R32" t="n">
-        <v>13.99890267249438</v>
+        <v>102.5176150018526</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10439,19 +10439,19 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>372.5052908240797</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>314.3704754722613</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>316.1293569293277</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R33" t="n">
-        <v>27.98796440657266</v>
+        <v>71.01380490566048</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10585,19 +10585,19 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>149.3931732904286</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>245.0199045468785</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>238.7082650465138</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
@@ -10606,10 +10606,10 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>280.8119108860276</v>
       </c>
       <c r="R35" t="n">
-        <v>13.99890267249438</v>
+        <v>102.5176150018526</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10664,28 +10664,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>258.7703339825328</v>
       </c>
       <c r="M36" t="n">
-        <v>244.4216092936568</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>253.8253049160302</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>284.9460037718078</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R36" t="n">
         <v>71.01380490566048</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>213.3912451250113</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -10846,7 +10846,7 @@
         <v>331.2113854294513</v>
       </c>
       <c r="R38" t="n">
-        <v>102.5176150018526</v>
+        <v>52.11814045842905</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10904,28 +10904,28 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>363.9863296760691</v>
       </c>
       <c r="L39" t="n">
-        <v>19.40241842832413</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>268.0450313644204</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>253.8253049160302</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>284.9460037718078</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>91.48601943750131</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R39" t="n">
-        <v>27.98796440657266</v>
+        <v>71.01380490566048</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>213.3912451250117</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -11083,7 +11083,7 @@
         <v>331.2113854294513</v>
       </c>
       <c r="R41" t="n">
-        <v>102.5176150018526</v>
+        <v>52.11814045842905</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11141,7 +11141,7 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>258.7703339825327</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11156,7 +11156,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>258.7703339825331</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>327.7205688679246</v>
@@ -11296,13 +11296,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>213.3912451250117</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>335.5127886390453</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>33.81783457634072</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -11317,10 +11317,10 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>331.2113854294513</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>102.5176150018526</v>
+        <v>13.99890267249438</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11378,7 +11378,7 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K45" t="n">
-        <v>301.7961744816208</v>
+        <v>258.7703339825327</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11399,7 +11399,7 @@
         <v>327.7205688679246</v>
       </c>
       <c r="R45" t="n">
-        <v>27.98796440657266</v>
+        <v>71.01380490566048</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23263,22 +23263,22 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D11" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>292.0981987936651</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>221.6091570373912</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>59.54237137282632</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>119.0923286359944</v>
       </c>
       <c r="T11" t="n">
         <v>212.4758086907236</v>
@@ -23326,7 +23326,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="12">
@@ -23342,19 +23342,19 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>77.03851849986194</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -23387,10 +23387,10 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>25.23715987994342</v>
+        <v>73.51569757130329</v>
       </c>
       <c r="T12" t="n">
-        <v>170.8836040586646</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
@@ -23402,7 +23402,7 @@
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>187.4140068734885</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -23418,25 +23418,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.6708174907576</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>145.915760422358</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>104.6770998313136</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23469,19 +23469,19 @@
         <v>185.0912503946672</v>
       </c>
       <c r="T13" t="n">
-        <v>229.5134335018853</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>282.5352749748386</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>28.63461195123102</v>
+        <v>189.9773262458271</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23497,25 +23497,25 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E14" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F14" t="n">
-        <v>234.4669283968651</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G14" t="n">
-        <v>407.0231810178811</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>300.2783333401841</v>
       </c>
       <c r="I14" t="n">
-        <v>59.54237137282632</v>
+        <v>3.857896042042853</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>119.0923286359944</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>212.4758086907236</v>
@@ -23557,7 +23557,7 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W14" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>385.5580790162737</v>
@@ -23573,10 +23573,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>102.4030870066593</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -23585,10 +23585,10 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>122.4738142773016</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>117.7848734220132</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -23630,10 +23630,10 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>207.8918312087472</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
@@ -23655,10 +23655,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23667,13 +23667,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.6708174907576</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>145.915760422358</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>104.6770998313136</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>78.1272345661604</v>
       </c>
       <c r="S16" t="n">
-        <v>185.0912503946672</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>229.5134335018853</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>282.5352749748386</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>28.63461195123102</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="17">
@@ -23737,13 +23737,13 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>240.4988160428812</v>
+        <v>251.4379005359873</v>
       </c>
       <c r="G17" t="n">
         <v>407.0231810178811</v>
@@ -23800,7 +23800,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y17" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23819,7 +23819,7 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>17.03272492491142</v>
       </c>
       <c r="F18" t="n">
         <v>123.1874880556995</v>
@@ -23864,7 +23864,7 @@
         <v>113.625858512588</v>
       </c>
       <c r="T18" t="n">
-        <v>17.03272492491115</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
@@ -23892,25 +23892,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F19" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.6708174907576</v>
+        <v>21.11231979443474</v>
       </c>
       <c r="H19" t="n">
         <v>145.915760422358</v>
       </c>
       <c r="I19" t="n">
-        <v>26.88370704176028</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,22 +23937,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>82.16341786525868</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>229.5134335018853</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>282.5352749748386</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -23968,22 +23968,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D20" t="n">
-        <v>381.5867174954989</v>
+        <v>159.5460200146227</v>
       </c>
       <c r="E20" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F20" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>232.7359768501989</v>
+        <v>407.0231810178811</v>
       </c>
       <c r="H20" t="n">
         <v>300.2783333401841</v>
@@ -24019,22 +24019,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>119.0923286359944</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>212.4758086907236</v>
       </c>
       <c r="U20" t="n">
-        <v>253.0345665146277</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24050,10 +24050,10 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D21" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -24062,10 +24062,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>71.95926315181288</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>77.03851849986194</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>11.90382589688436</v>
@@ -24101,7 +24101,7 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>170.8836040586646</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
@@ -24110,10 +24110,10 @@
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>112.1077684060771</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -24126,10 +24126,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>147.8812711993453</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24138,13 +24138,13 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>145.915760422358</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>104.6770998313136</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>82.16341786525868</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>185.0912503946672</v>
@@ -24183,10 +24183,10 @@
         <v>229.5134335018853</v>
       </c>
       <c r="U22" t="n">
-        <v>282.5352749748386</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>239.6949836078188</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24208,19 +24208,19 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E23" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>407.0231810178811</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>300.2783333401841</v>
@@ -24256,25 +24256,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>119.0923286359944</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>212.4758086907236</v>
       </c>
       <c r="U23" t="n">
-        <v>253.0345665146277</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>67.14293088449642</v>
+        <v>126.9308801253442</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X23" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="24">
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>138.8283768087247</v>
       </c>
       <c r="C25" t="n">
         <v>168.5030667546707</v>
@@ -24414,7 +24414,7 @@
         <v>82.16341786525868</v>
       </c>
       <c r="S25" t="n">
-        <v>138.8283768087253</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24442,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>389.2437464820987</v>
@@ -24454,13 +24454,13 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G26" t="n">
-        <v>407.0231810178811</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>300.2783333401841</v>
+        <v>216.0897899556869</v>
       </c>
       <c r="I26" t="n">
         <v>59.54237137282632</v>
@@ -24493,13 +24493,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>119.0923286359944</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>253.0345665146277</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -24508,10 +24508,10 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y26" t="n">
-        <v>282.7089455955575</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>74.02416611706131</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G28" t="n">
-        <v>165.6708174907576</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>145.915760422358</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>104.6770998313136</v>
+        <v>44.3304975665903</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24657,7 +24657,7 @@
         <v>229.5134335018853</v>
       </c>
       <c r="U28" t="n">
-        <v>282.5352749748386</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="29">
@@ -24688,19 +24688,19 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>197.8877922419096</v>
+        <v>407.0231810178811</v>
       </c>
       <c r="H29" t="n">
-        <v>300.2783333401841</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>59.54237137282632</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24730,16 +24730,16 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>119.0923286359944</v>
+        <v>29.855702844047</v>
       </c>
       <c r="T29" t="n">
-        <v>212.4758086907236</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>253.0345665146277</v>
       </c>
       <c r="V29" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>367.2890446813954</v>
@@ -24748,7 +24748,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="30">
@@ -24843,13 +24843,13 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E31" t="n">
-        <v>147.7849241797895</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F31" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.6708174907576</v>
@@ -24888,19 +24888,19 @@
         <v>82.16341786525868</v>
       </c>
       <c r="S31" t="n">
-        <v>185.0912503946672</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>182.5870209544181</v>
       </c>
       <c r="U31" t="n">
-        <v>282.5352749748386</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -24916,25 +24916,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>280.0643125479349</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F32" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>407.0231810178811</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>300.2783333401841</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>59.54237137282632</v>
@@ -24967,13 +24967,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>119.0923286359944</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>212.4758086907236</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>253.0345665146277</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>338.6857412035168</v>
@@ -24982,7 +24982,7 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X32" t="n">
-        <v>145.2839136504793</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25074,10 +25074,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>154.0767819665104</v>
@@ -25089,7 +25089,7 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G34" t="n">
-        <v>165.6708174907576</v>
+        <v>58.39757715760068</v>
       </c>
       <c r="H34" t="n">
         <v>145.915760422358</v>
@@ -25122,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>37.63585616959532</v>
+        <v>82.16341786525868</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>185.0912503946672</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>229.5134335018853</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25159,16 +25159,16 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E35" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F35" t="n">
-        <v>400.7750130876923</v>
+        <v>325.2383014044909</v>
       </c>
       <c r="G35" t="n">
-        <v>407.0231810178811</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>300.2783333401841</v>
@@ -25207,22 +25207,22 @@
         <v>119.0923286359944</v>
       </c>
       <c r="T35" t="n">
-        <v>212.4758086907236</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25232,7 +25232,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -25244,13 +25244,13 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>82.96246743453435</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>117.7848734220132</v>
       </c>
       <c r="H36" t="n">
-        <v>13.88162974726981</v>
+        <v>77.03851849986194</v>
       </c>
       <c r="I36" t="n">
         <v>11.90382589688436</v>
@@ -25283,7 +25283,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>113.625858512588</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>170.8836040586646</v>
@@ -25317,22 +25317,22 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D37" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>154.0032240193895</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G37" t="n">
-        <v>165.6708174907576</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>145.915760422358</v>
       </c>
       <c r="I37" t="n">
-        <v>28.80111037808434</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>82.16341786525868</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>51.01645905432554</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25374,13 +25374,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X37" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y37" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C38" t="n">
         <v>389.2437464820987</v>
@@ -25399,19 +25399,19 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>407.0231810178811</v>
       </c>
       <c r="H38" t="n">
-        <v>236.5122377961753</v>
+        <v>300.2783333401841</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>59.54237137282632</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25441,22 +25441,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>119.0923286359944</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>212.4758086907236</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>253.0345665146277</v>
+        <v>12.07069171539482</v>
       </c>
       <c r="V38" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W38" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>392.5258019886049</v>
@@ -25472,25 +25472,25 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>128.7880777047345</v>
       </c>
       <c r="E39" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G39" t="n">
-        <v>47.55549749149415</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>77.03851849986194</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>11.90382589688436</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25523,7 +25523,7 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>119.6553791547782</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
@@ -25605,7 +25605,7 @@
         <v>229.5134335018853</v>
       </c>
       <c r="U40" t="n">
-        <v>277.7640481140985</v>
+        <v>277.7640481140983</v>
       </c>
       <c r="V40" t="n">
         <v>263.319551727384</v>
@@ -25627,10 +25627,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>396.4897982542829</v>
+        <v>279.8414953189905</v>
       </c>
       <c r="C41" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -25639,7 +25639,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G41" t="n">
         <v>407.0231810178811</v>
@@ -25648,7 +25648,7 @@
         <v>300.2783333401841</v>
       </c>
       <c r="I41" t="n">
-        <v>59.54237137282632</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25687,7 +25687,7 @@
         <v>253.0345665146277</v>
       </c>
       <c r="V41" t="n">
-        <v>185.9768144986209</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W41" t="n">
         <v>367.2890446813954</v>
@@ -25718,13 +25718,13 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>117.7848734220132</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>77.03851849986194</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -25757,10 +25757,10 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>113.625858512588</v>
       </c>
       <c r="T42" t="n">
-        <v>170.8836040586646</v>
+        <v>28.93655082179575</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
@@ -25772,10 +25772,10 @@
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>187.4140068734885</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>102.2756783798054</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -25785,25 +25785,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>168.5030667546707</v>
       </c>
       <c r="D43" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.6708174907576</v>
+        <v>47.0224926839749</v>
       </c>
       <c r="H43" t="n">
-        <v>145.915760422358</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>104.6770998313136</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>37.63585616959532</v>
+        <v>82.16341786525868</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>185.0912503946672</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>229.5134335018853</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25851,10 +25851,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="44">
@@ -25867,22 +25867,22 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C44" t="n">
-        <v>352.5114426228976</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D44" t="n">
-        <v>381.5867174954989</v>
+        <v>102.1948372334607</v>
       </c>
       <c r="E44" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F44" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>407.0231810178811</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>300.2783333401841</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>59.54237137282632</v>
@@ -25915,13 +25915,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>119.0923286359944</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>212.4758086907236</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>253.0345665146277</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -25930,10 +25930,10 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="45">
@@ -25946,10 +25946,10 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>73.51569757130314</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>135.0820259802211</v>
@@ -25994,7 +25994,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>24.7827005207901</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -26012,7 +26012,7 @@
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="46">
@@ -26028,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G46" t="n">
         <v>165.6708174907576</v>
       </c>
       <c r="H46" t="n">
-        <v>145.915760422358</v>
+        <v>145.5971960948841</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>104.6770998313136</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,19 +26070,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>82.16341786525868</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>185.0912503946672</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>229.5134335018853</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>180.739442875079</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W46" t="n">
         <v>280.4970980481341</v>
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>546996.8104861247</v>
+        <v>546996.8104861246</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>546996.8104861247</v>
+        <v>546996.8104861246</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>546996.8104861245</v>
+        <v>546996.8104861247</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>546996.8104861247</v>
+        <v>546996.8104861246</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>470741.080542356</v>
+        <v>470741.0805423558</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>470741.0805423558</v>
+        <v>470741.080542356</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>470741.0805423558</v>
+        <v>470741.080542356</v>
       </c>
     </row>
   </sheetData>
@@ -26313,22 +26313,22 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>539697.6639441509</v>
+      </c>
+      <c r="C2" t="n">
+        <v>539697.6639441509</v>
+      </c>
+      <c r="D2" t="n">
         <v>539697.6639441508</v>
       </c>
-      <c r="C2" t="n">
-        <v>539697.6639441508</v>
-      </c>
-      <c r="D2" t="n">
-        <v>539697.6639441509</v>
-      </c>
       <c r="E2" t="n">
+        <v>319860.2185806405</v>
+      </c>
+      <c r="F2" t="n">
         <v>319860.2185806404</v>
       </c>
-      <c r="F2" t="n">
-        <v>319860.2185806403</v>
-      </c>
       <c r="G2" t="n">
-        <v>319860.2185806404</v>
+        <v>319860.2185806405</v>
       </c>
       <c r="H2" t="n">
         <v>319860.2185806404</v>
@@ -26337,22 +26337,22 @@
         <v>362002.6745526848</v>
       </c>
       <c r="J2" t="n">
+        <v>362002.6745526847</v>
+      </c>
+      <c r="K2" t="n">
+        <v>362002.6745526846</v>
+      </c>
+      <c r="L2" t="n">
         <v>362002.6745526848</v>
-      </c>
-      <c r="K2" t="n">
-        <v>362002.6745526848</v>
-      </c>
-      <c r="L2" t="n">
-        <v>362002.6745526846</v>
       </c>
       <c r="M2" t="n">
         <v>319860.2185806404</v>
       </c>
       <c r="N2" t="n">
-        <v>319860.2185806404</v>
+        <v>319860.2185806403</v>
       </c>
       <c r="O2" t="n">
-        <v>319860.2185806405</v>
+        <v>319860.2185806406</v>
       </c>
       <c r="P2" t="n">
         <v>319860.2185806404</v>
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>31559.50053265423</v>
+        <v>31559.50053265449</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>82036.15754538536</v>
+        <v>82036.15754538514</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,40 +26426,40 @@
         <v>377542.8357541459</v>
       </c>
       <c r="E4" t="n">
-        <v>44649.16264904798</v>
+        <v>44649.16264904797</v>
       </c>
       <c r="F4" t="n">
-        <v>44649.16264904798</v>
+        <v>44649.16264904797</v>
       </c>
       <c r="G4" t="n">
+        <v>44649.16264904795</v>
+      </c>
+      <c r="H4" t="n">
         <v>44649.16264904797</v>
       </c>
-      <c r="H4" t="n">
-        <v>44649.16264904798</v>
-      </c>
       <c r="I4" t="n">
-        <v>64800.94753381964</v>
+        <v>64800.94753381967</v>
       </c>
       <c r="J4" t="n">
-        <v>64800.94753381964</v>
+        <v>64800.94753381967</v>
       </c>
       <c r="K4" t="n">
         <v>64800.94753381966</v>
       </c>
       <c r="L4" t="n">
-        <v>64800.94753381965</v>
+        <v>64800.94753381966</v>
       </c>
       <c r="M4" t="n">
-        <v>44649.16264904796</v>
+        <v>44649.16264904797</v>
       </c>
       <c r="N4" t="n">
-        <v>44649.16264904795</v>
+        <v>44649.16264904797</v>
       </c>
       <c r="O4" t="n">
         <v>44649.16264904798</v>
       </c>
       <c r="P4" t="n">
-        <v>44649.16264904798</v>
+        <v>44649.16264904797</v>
       </c>
     </row>
     <row r="5">
@@ -26478,28 +26478,28 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>38119.25843022533</v>
+        <v>38119.25843022532</v>
       </c>
       <c r="F5" t="n">
-        <v>38119.25843022533</v>
+        <v>38119.25843022532</v>
       </c>
       <c r="G5" t="n">
-        <v>38119.25843022533</v>
+        <v>38119.25843022532</v>
       </c>
       <c r="H5" t="n">
-        <v>38119.25843022533</v>
+        <v>38119.25843022532</v>
       </c>
       <c r="I5" t="n">
-        <v>45335.00157343474</v>
+        <v>45335.00157343475</v>
       </c>
       <c r="J5" t="n">
-        <v>45335.00157343474</v>
+        <v>45335.00157343475</v>
       </c>
       <c r="K5" t="n">
-        <v>45335.00157343474</v>
+        <v>45335.00157343475</v>
       </c>
       <c r="L5" t="n">
-        <v>45335.00157343473</v>
+        <v>45335.00157343475</v>
       </c>
       <c r="M5" t="n">
         <v>38119.25843022532</v>
@@ -26508,10 +26508,10 @@
         <v>38119.25843022532</v>
       </c>
       <c r="O5" t="n">
-        <v>38119.25843022533</v>
+        <v>38119.25843022532</v>
       </c>
       <c r="P5" t="n">
-        <v>38119.25843022533</v>
+        <v>38119.25843022532</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>128527.2281900049</v>
+        <v>128522.8986222186</v>
       </c>
       <c r="C6" t="n">
-        <v>128527.2281900049</v>
+        <v>128522.8986222186</v>
       </c>
       <c r="D6" t="n">
-        <v>128527.2281900051</v>
+        <v>128522.8986222185</v>
       </c>
       <c r="E6" t="n">
-        <v>-297914.3176100601</v>
+        <v>-298651.4386623914</v>
       </c>
       <c r="F6" t="n">
-        <v>237091.797501367</v>
+        <v>236354.6764490357</v>
       </c>
       <c r="G6" t="n">
-        <v>237091.7975013671</v>
+        <v>236354.6764490358</v>
       </c>
       <c r="H6" t="n">
-        <v>237091.7975013671</v>
+        <v>236354.6764490357</v>
       </c>
       <c r="I6" t="n">
-        <v>220307.2249127761</v>
+        <v>219710.5787136846</v>
       </c>
       <c r="J6" t="n">
-        <v>251866.7254454304</v>
+        <v>251270.079246339</v>
       </c>
       <c r="K6" t="n">
-        <v>251866.7254454304</v>
+        <v>251270.079246339</v>
       </c>
       <c r="L6" t="n">
-        <v>251866.7254454302</v>
+        <v>251270.0792463392</v>
       </c>
       <c r="M6" t="n">
-        <v>155055.6399559818</v>
+        <v>154318.5189036506</v>
       </c>
       <c r="N6" t="n">
-        <v>237091.7975013672</v>
+        <v>236354.6764490356</v>
       </c>
       <c r="O6" t="n">
-        <v>237091.7975013672</v>
+        <v>236354.6764490358</v>
       </c>
       <c r="P6" t="n">
-        <v>237091.7975013671</v>
+        <v>236354.6764490357</v>
       </c>
     </row>
   </sheetData>
@@ -26810,16 +26810,16 @@
         <v>447.872765901088</v>
       </c>
       <c r="I4" t="n">
-        <v>566.5527518091376</v>
+        <v>566.5527518091377</v>
       </c>
       <c r="J4" t="n">
-        <v>566.5527518091376</v>
+        <v>566.5527518091377</v>
       </c>
       <c r="K4" t="n">
-        <v>566.5527518091376</v>
+        <v>566.5527518091377</v>
       </c>
       <c r="L4" t="n">
-        <v>566.5527518091375</v>
+        <v>566.5527518091377</v>
       </c>
       <c r="M4" t="n">
         <v>447.872765901088</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>447.8727659010881</v>
+        <v>447.872765901088</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>118.6799859080487</v>
+        <v>118.6799859080497</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>329.1927799930393</v>
+        <v>329.1927799930384</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>447.8727659010881</v>
+        <v>447.872765901088</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -35415,25 +35415,25 @@
         <v>112.3599772620427</v>
       </c>
       <c r="L11" t="n">
-        <v>163.6209168450794</v>
+        <v>444.4328277311071</v>
       </c>
       <c r="M11" t="n">
         <v>202.8528613542094</v>
       </c>
       <c r="N11" t="n">
-        <v>447.872765901088</v>
+        <v>209.1645008545742</v>
       </c>
       <c r="O11" t="n">
         <v>188.752632393623</v>
       </c>
       <c r="P11" t="n">
-        <v>269.0661906892092</v>
+        <v>138.4438325203367</v>
       </c>
       <c r="Q11" t="n">
         <v>72.3369815900846</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>88.51871232935822</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,13 +35488,13 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>19.0577103266733</v>
+        <v>215.7597254577111</v>
       </c>
       <c r="K12" t="n">
-        <v>277.4700399146939</v>
+        <v>385.6826107066391</v>
       </c>
       <c r="L12" t="n">
-        <v>447.872765901088</v>
+        <v>143.2094553810758</v>
       </c>
       <c r="M12" t="n">
         <v>179.8277345366675</v>
@@ -35503,16 +35503,16 @@
         <v>194.0474609850578</v>
       </c>
       <c r="O12" t="n">
-        <v>447.872765901088</v>
+        <v>162.9267621292802</v>
       </c>
       <c r="P12" t="n">
         <v>118.0696631543806</v>
       </c>
       <c r="Q12" t="n">
-        <v>46.15121305627828</v>
+        <v>373.8717819242029</v>
       </c>
       <c r="R12" t="n">
-        <v>43.02584049908782</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35576,7 +35576,7 @@
         <v>299.6944063758509</v>
       </c>
       <c r="M13" t="n">
-        <v>329.3614832714728</v>
+        <v>329.3614832714727</v>
       </c>
       <c r="N13" t="n">
         <v>322.871067038872</v>
@@ -35649,13 +35649,13 @@
         <v>316.5328682396791</v>
       </c>
       <c r="K14" t="n">
-        <v>197.4387514214202</v>
+        <v>112.3599772620427</v>
       </c>
       <c r="L14" t="n">
-        <v>447.872765901088</v>
+        <v>163.6209168450794</v>
       </c>
       <c r="M14" t="n">
-        <v>202.8528613542094</v>
+        <v>262.7545511888441</v>
       </c>
       <c r="N14" t="n">
         <v>209.1645008545742</v>
@@ -35664,7 +35664,7 @@
         <v>188.752632393623</v>
       </c>
       <c r="P14" t="n">
-        <v>138.4438325203367</v>
+        <v>447.872765901088</v>
       </c>
       <c r="Q14" t="n">
         <v>72.3369815900846</v>
@@ -35725,16 +35725,16 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>215.7597254577111</v>
+        <v>187.5015217896531</v>
       </c>
       <c r="K15" t="n">
         <v>83.88643622501884</v>
       </c>
       <c r="L15" t="n">
-        <v>447.872765901088</v>
+        <v>143.2094553810758</v>
       </c>
       <c r="M15" t="n">
-        <v>219.7351635943927</v>
+        <v>179.8277345366675</v>
       </c>
       <c r="N15" t="n">
         <v>194.0474609850578</v>
@@ -35743,13 +35743,13 @@
         <v>447.872765901088</v>
       </c>
       <c r="P15" t="n">
-        <v>118.0696631543806</v>
+        <v>447.872765901088</v>
       </c>
       <c r="Q15" t="n">
         <v>46.15121305627828</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>43.02584049908782</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35883,22 +35883,22 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>52.74214857124406</v>
+        <v>117.3144245668487</v>
       </c>
       <c r="K17" t="n">
         <v>112.3599772620427</v>
       </c>
       <c r="L17" t="n">
-        <v>447.872765901088</v>
+        <v>163.6209168450794</v>
       </c>
       <c r="M17" t="n">
         <v>202.8528613542094</v>
       </c>
       <c r="N17" t="n">
-        <v>248.6050613016355</v>
+        <v>209.1645008545742</v>
       </c>
       <c r="O17" t="n">
-        <v>188.752632393623</v>
+        <v>447.872765901088</v>
       </c>
       <c r="P17" t="n">
         <v>447.872765901088</v>
@@ -35962,16 +35962,16 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>19.0577103266733</v>
+        <v>215.7597254577111</v>
       </c>
       <c r="K18" t="n">
+        <v>83.88643622501884</v>
+      </c>
+      <c r="L18" t="n">
+        <v>143.2094553810758</v>
+      </c>
+      <c r="M18" t="n">
         <v>447.872765901088</v>
-      </c>
-      <c r="L18" t="n">
-        <v>234.695474818577</v>
-      </c>
-      <c r="M18" t="n">
-        <v>179.8277345366675</v>
       </c>
       <c r="N18" t="n">
         <v>194.0474609850578</v>
@@ -35983,7 +35983,7 @@
         <v>118.0696631543806</v>
       </c>
       <c r="Q18" t="n">
-        <v>373.8717819242029</v>
+        <v>364.5970845423149</v>
       </c>
       <c r="R18" t="n">
         <v>43.02584049908782</v>
@@ -36126,25 +36126,25 @@
         <v>112.3599772620427</v>
       </c>
       <c r="L20" t="n">
-        <v>292.602221674557</v>
+        <v>163.6209168450794</v>
       </c>
       <c r="M20" t="n">
-        <v>447.872765901088</v>
+        <v>202.8528613542094</v>
       </c>
       <c r="N20" t="n">
         <v>209.1645008545742</v>
       </c>
       <c r="O20" t="n">
-        <v>447.872765901088</v>
+        <v>188.752632393623</v>
       </c>
       <c r="P20" t="n">
-        <v>138.4438325203367</v>
+        <v>351.8350776453481</v>
       </c>
       <c r="Q20" t="n">
-        <v>72.3369815900846</v>
+        <v>403.5483670195359</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>88.51871232935822</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36202,16 +36202,16 @@
         <v>215.7597254577111</v>
       </c>
       <c r="K21" t="n">
-        <v>83.88643622501884</v>
+        <v>342.6567702075516</v>
       </c>
       <c r="L21" t="n">
         <v>143.2094553810758</v>
       </c>
       <c r="M21" t="n">
-        <v>447.872765901088</v>
+        <v>179.8277345366675</v>
       </c>
       <c r="N21" t="n">
-        <v>227.798604102258</v>
+        <v>194.0474609850578</v>
       </c>
       <c r="O21" t="n">
         <v>162.9267621292802</v>
@@ -36223,7 +36223,7 @@
         <v>373.8717819242029</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>43.02584049908782</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36357,28 +36357,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>52.74214857124406</v>
+        <v>316.5328682396791</v>
       </c>
       <c r="K23" t="n">
-        <v>566.5527518091376</v>
+        <v>112.3599772620427</v>
       </c>
       <c r="L23" t="n">
-        <v>366.567314584302</v>
+        <v>163.6209168450794</v>
       </c>
       <c r="M23" t="n">
         <v>202.8528613542094</v>
       </c>
       <c r="N23" t="n">
-        <v>566.5527518091376</v>
+        <v>209.1645008545742</v>
       </c>
       <c r="O23" t="n">
         <v>188.752632393623</v>
       </c>
       <c r="P23" t="n">
-        <v>138.4438325203367</v>
+        <v>557.969150663332</v>
       </c>
       <c r="Q23" t="n">
-        <v>72.3369815900846</v>
+        <v>403.5483670195359</v>
       </c>
       <c r="R23" t="n">
         <v>88.51871232935822</v>
@@ -36439,28 +36439,28 @@
         <v>215.7597254577111</v>
       </c>
       <c r="K24" t="n">
-        <v>83.88643622501884</v>
+        <v>496.4522059646415</v>
       </c>
       <c r="L24" t="n">
         <v>143.2094553810758</v>
       </c>
       <c r="M24" t="n">
-        <v>460.1121495696063</v>
+        <v>179.8277345366675</v>
       </c>
       <c r="N24" t="n">
-        <v>566.5527518091376</v>
+        <v>194.0474609850578</v>
       </c>
       <c r="O24" t="n">
-        <v>566.5527518091376</v>
+        <v>162.9267621292802</v>
       </c>
       <c r="P24" t="n">
-        <v>118.0696631543806</v>
+        <v>477.2248605827974</v>
       </c>
       <c r="Q24" t="n">
-        <v>46.15121305627828</v>
+        <v>373.8717819242029</v>
       </c>
       <c r="R24" t="n">
-        <v>43.02584049908782</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36594,28 +36594,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>52.74214857124406</v>
+        <v>316.5328682396791</v>
       </c>
       <c r="K26" t="n">
         <v>112.3599772620427</v>
       </c>
       <c r="L26" t="n">
-        <v>566.5527518091376</v>
+        <v>163.6209168450794</v>
       </c>
       <c r="M26" t="n">
-        <v>566.5527518091376</v>
+        <v>202.8528613542094</v>
       </c>
       <c r="N26" t="n">
-        <v>457.0601986764688</v>
+        <v>209.1645008545742</v>
       </c>
       <c r="O26" t="n">
         <v>188.752632393623</v>
       </c>
       <c r="P26" t="n">
-        <v>138.4438325203367</v>
+        <v>557.969150663332</v>
       </c>
       <c r="Q26" t="n">
-        <v>72.3369815900846</v>
+        <v>403.5483670195359</v>
       </c>
       <c r="R26" t="n">
         <v>88.51871232935822</v>
@@ -36676,10 +36676,10 @@
         <v>19.0577103266733</v>
       </c>
       <c r="K27" t="n">
-        <v>83.88643622501884</v>
+        <v>496.4522059646415</v>
       </c>
       <c r="L27" t="n">
-        <v>566.5527518091376</v>
+        <v>207.5577387866852</v>
       </c>
       <c r="M27" t="n">
         <v>179.8277345366675</v>
@@ -36688,10 +36688,10 @@
         <v>194.0474609850578</v>
       </c>
       <c r="O27" t="n">
-        <v>216.4975188464498</v>
+        <v>162.9267621292802</v>
       </c>
       <c r="P27" t="n">
-        <v>566.5527518091376</v>
+        <v>566.5527518091377</v>
       </c>
       <c r="Q27" t="n">
         <v>373.8717819242029</v>
@@ -36831,13 +36831,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>52.74214857124406</v>
+        <v>316.5328682396791</v>
       </c>
       <c r="K29" t="n">
-        <v>434.6741584527094</v>
+        <v>112.3599772620427</v>
       </c>
       <c r="L29" t="n">
-        <v>566.5527518091376</v>
+        <v>163.6209168450794</v>
       </c>
       <c r="M29" t="n">
         <v>202.8528613542094</v>
@@ -36846,16 +36846,16 @@
         <v>209.1645008545742</v>
       </c>
       <c r="O29" t="n">
-        <v>566.5527518091376</v>
+        <v>188.752632393623</v>
       </c>
       <c r="P29" t="n">
-        <v>138.4438325203367</v>
+        <v>557.969150663332</v>
       </c>
       <c r="Q29" t="n">
-        <v>72.3369815900846</v>
+        <v>403.5483670195359</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>88.51871232935822</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,13 +36910,13 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>19.0577103266733</v>
+        <v>215.7597254577111</v>
       </c>
       <c r="K30" t="n">
         <v>496.4522059646415</v>
       </c>
       <c r="L30" t="n">
-        <v>566.5527518091376</v>
+        <v>143.2094553810758</v>
       </c>
       <c r="M30" t="n">
         <v>179.8277345366675</v>
@@ -36925,16 +36925,16 @@
         <v>194.0474609850578</v>
       </c>
       <c r="O30" t="n">
-        <v>566.5527518091376</v>
+        <v>162.9267621292802</v>
       </c>
       <c r="P30" t="n">
-        <v>118.0696631543806</v>
+        <v>434.1990200837093</v>
       </c>
       <c r="Q30" t="n">
-        <v>102.7597083757377</v>
+        <v>373.8717819242029</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>43.02584049908782</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37071,10 +37071,10 @@
         <v>316.5328682396791</v>
       </c>
       <c r="K32" t="n">
-        <v>566.5527518091375</v>
+        <v>112.3599772620427</v>
       </c>
       <c r="L32" t="n">
-        <v>217.4721727703377</v>
+        <v>163.6209168450794</v>
       </c>
       <c r="M32" t="n">
         <v>202.8528613542094</v>
@@ -37086,13 +37086,13 @@
         <v>188.752632393623</v>
       </c>
       <c r="P32" t="n">
-        <v>138.4438325203367</v>
+        <v>557.969150663332</v>
       </c>
       <c r="Q32" t="n">
         <v>403.5483670195359</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>88.51871232935822</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37159,19 +37159,19 @@
         <v>179.8277345366675</v>
       </c>
       <c r="N33" t="n">
-        <v>566.5527518091375</v>
+        <v>194.0474609850578</v>
       </c>
       <c r="O33" t="n">
-        <v>477.2972376015415</v>
+        <v>162.9267621292802</v>
       </c>
       <c r="P33" t="n">
-        <v>118.0696631543806</v>
+        <v>434.1990200837084</v>
       </c>
       <c r="Q33" t="n">
-        <v>46.15121305627828</v>
+        <v>373.8717819242029</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>43.02584049908782</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37305,19 +37305,19 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>52.74214857124406</v>
+        <v>316.5328682396791</v>
       </c>
       <c r="K35" t="n">
         <v>112.3599772620427</v>
       </c>
       <c r="L35" t="n">
-        <v>313.014090135508</v>
+        <v>163.6209168450794</v>
       </c>
       <c r="M35" t="n">
-        <v>447.872765901088</v>
+        <v>202.8528613542094</v>
       </c>
       <c r="N35" t="n">
-        <v>447.872765901088</v>
+        <v>209.1645008545742</v>
       </c>
       <c r="O35" t="n">
         <v>188.752632393623</v>
@@ -37326,10 +37326,10 @@
         <v>138.4438325203367</v>
       </c>
       <c r="Q35" t="n">
-        <v>72.3369815900846</v>
+        <v>353.1488924761122</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>88.51871232935822</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>19.0577103266733</v>
+        <v>215.7597254577111</v>
       </c>
       <c r="K36" t="n">
         <v>83.88643622501884</v>
       </c>
       <c r="L36" t="n">
-        <v>143.2094553810758</v>
+        <v>401.9797893636086</v>
       </c>
       <c r="M36" t="n">
-        <v>424.2493438303243</v>
+        <v>179.8277345366675</v>
       </c>
       <c r="N36" t="n">
-        <v>447.872765901088</v>
+        <v>194.0474609850578</v>
       </c>
       <c r="O36" t="n">
-        <v>447.872765901088</v>
+        <v>162.9267621292802</v>
       </c>
       <c r="P36" t="n">
         <v>118.0696631543806</v>
       </c>
       <c r="Q36" t="n">
-        <v>46.15121305627828</v>
+        <v>373.8717819242029</v>
       </c>
       <c r="R36" t="n">
         <v>43.02584049908782</v>
@@ -37542,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>266.1333936962553</v>
+        <v>316.5328682396791</v>
       </c>
       <c r="K38" t="n">
         <v>112.3599772620427</v>
@@ -37566,7 +37566,7 @@
         <v>403.5483670195359</v>
       </c>
       <c r="R38" t="n">
-        <v>88.51871232935822</v>
+        <v>38.11923778593467</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37624,28 +37624,28 @@
         <v>19.0577103266733</v>
       </c>
       <c r="K39" t="n">
-        <v>83.88643622501884</v>
+        <v>447.872765901088</v>
       </c>
       <c r="L39" t="n">
-        <v>162.6118738093999</v>
+        <v>143.2094553810758</v>
       </c>
       <c r="M39" t="n">
-        <v>447.872765901088</v>
+        <v>179.8277345366675</v>
       </c>
       <c r="N39" t="n">
-        <v>447.872765901088</v>
+        <v>194.0474609850578</v>
       </c>
       <c r="O39" t="n">
-        <v>447.872765901088</v>
+        <v>162.9267621292802</v>
       </c>
       <c r="P39" t="n">
-        <v>118.0696631543806</v>
+        <v>209.5556825918819</v>
       </c>
       <c r="Q39" t="n">
-        <v>46.15121305627828</v>
+        <v>373.8717819242029</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>43.02584049908782</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37779,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>266.1333936962558</v>
+        <v>316.5328682396791</v>
       </c>
       <c r="K41" t="n">
         <v>112.3599772620427</v>
@@ -37803,7 +37803,7 @@
         <v>403.5483670195359</v>
       </c>
       <c r="R41" t="n">
-        <v>88.51871232935822</v>
+        <v>38.11923778593467</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37861,7 +37861,7 @@
         <v>215.7597254577111</v>
       </c>
       <c r="K42" t="n">
-        <v>83.88643622501884</v>
+        <v>342.6567702075516</v>
       </c>
       <c r="L42" t="n">
         <v>143.2094553810758</v>
@@ -37876,7 +37876,7 @@
         <v>162.9267621292802</v>
       </c>
       <c r="P42" t="n">
-        <v>376.8399971369137</v>
+        <v>118.0696631543806</v>
       </c>
       <c r="Q42" t="n">
         <v>373.8717819242029</v>
@@ -38016,13 +38016,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>266.1333936962558</v>
+        <v>316.5328682396791</v>
       </c>
       <c r="K44" t="n">
-        <v>112.3599772620427</v>
+        <v>447.872765901088</v>
       </c>
       <c r="L44" t="n">
-        <v>163.6209168450794</v>
+        <v>197.4387514214201</v>
       </c>
       <c r="M44" t="n">
         <v>202.8528613542094</v>
@@ -38037,10 +38037,10 @@
         <v>138.4438325203367</v>
       </c>
       <c r="Q44" t="n">
-        <v>403.5483670195359</v>
+        <v>72.3369815900846</v>
       </c>
       <c r="R44" t="n">
-        <v>88.51871232935822</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38098,7 +38098,7 @@
         <v>215.7597254577111</v>
       </c>
       <c r="K45" t="n">
-        <v>385.6826107066396</v>
+        <v>342.6567702075516</v>
       </c>
       <c r="L45" t="n">
         <v>143.2094553810758</v>
@@ -38119,7 +38119,7 @@
         <v>373.8717819242029</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>43.02584049908782</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
